--- a/outputs-HGR-r202/test-p__Firmicutes_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Firmicutes_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="558">
   <si>
     <t>Row</t>
   </si>
@@ -1708,7 +1708,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1718,14 +1718,26 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1739,5835 +1751,5835 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
-    <col min="2" max="2" width="11" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>169847.27824439283</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>147131.49443046929</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>162704.69093131143</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>162704.69093131143</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>140439.38246630103</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>177585.99571410901</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>149800.4560272214</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>162881.29132158557</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>185115.65684755723</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>160636.17606311041</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>157300.96156866025</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>184415.10462670712</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>148840.31673414953</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>153017.83531351452</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>147593.13073130249</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>132145.68667741361</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>163486.42406102261</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>153277.88941000827</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>235341.4154790371</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>131111.96266308709</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>149932.97516385181</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>196688.04933156</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>149932.97516385181</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>158411.99751821658</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>239509.92538106692</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>155770.05242457124</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>153468.6622118885</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>171406.91412196532</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>174615.45098376935</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>161632.82309128944</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>153468.6622118885</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>153530.57212021662</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>170960.88957682575</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>213805.83195370605</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>206221.33772142758</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>197067.0994665543</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
+      <c r="A38" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>197633.80897367175</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
+      <c r="A39" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>149963.14191940075</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
+      <c r="A40" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>149159.51874908581</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
+      <c r="A41" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>161159.25597371461</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>153277.88941000827</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>229337.42882749587</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
+      <c r="A44" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>155155.90282722164</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>173147.13686673576</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>191397.55581327816</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>214373.95101641264</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
+      <c r="A48" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>164733.50636263637</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>195417.11717593949</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
+      <c r="A50" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>179343.58090840065</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
+      <c r="A51" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>212955.28508280063</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
+      <c r="A52" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>131681.68532252318</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
+      <c r="A53" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>180932.95111604861</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
+      <c r="A54" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>204340.48339915037</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
+      <c r="A55" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>155518.61163899439</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
+      <c r="A56" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>205173.68396630301</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
+      <c r="A57" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>241718.19248475792</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
+      <c r="A58" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>129275.39645470575</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
+      <c r="A59" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>234164.05242031103</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
+      <c r="A60" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>146439.53621954776</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
+      <c r="A61" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>238202.46858584264</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
+      <c r="A62" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>216806.45773401821</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
+      <c r="A63" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>151745.69070323091</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
+      <c r="A64" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>129275.39645470575</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
+      <c r="A65" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>205263.37212343805</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
+      <c r="A66" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>285967.2572401776</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
+      <c r="A67" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>97515.167203660909</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
+      <c r="A68" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>222208.81951874038</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
+      <c r="A69" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>170327.1398967733</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
+      <c r="A70" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>154854.5306451252</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
+      <c r="A71" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>172338.95774340647</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
+      <c r="A72" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>245649.41709691228</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
+      <c r="A73" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>155075.24693124639</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
+      <c r="A74" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>180879.11735578688</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
+      <c r="A75" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>140302.24014945072</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
+      <c r="A76" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>159392.96795963866</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
+      <c r="A77" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>173793.60499523804</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
+      <c r="A78" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>173751.23137356565</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
+      <c r="A79" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>174321.87560976887</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
+      <c r="A80" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>170889.61637996126</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
+      <c r="A81" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>157805.26070181411</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
+      <c r="A82" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>174321.87560976887</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
+      <c r="A83" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>222689.63105944573</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
+      <c r="A84" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>153038.97270848358</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
+      <c r="A85" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>164404.68695180395</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
+      <c r="A86" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>164095.50691534346</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
+      <c r="A87" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>142261.49533755681</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
+      <c r="A88" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>148374.72928937923</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
+      <c r="A89" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>150959.32164999555</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
+      <c r="A90" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>174321.87560976887</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
+      <c r="A91" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>172707.18657562422</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
+      <c r="A92" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>232666.55098724377</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
+      <c r="A93" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>192385.56304150919</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
+      <c r="A94" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>162660.59626347449</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
+      <c r="A95" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>164863.46359461098</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
+      <c r="A96" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>160984.10380766666</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
+      <c r="A97" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>107261.77941438118</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
+      <c r="A98" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>68366.751566141174</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
+      <c r="A99" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>106709.6269118924</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
+      <c r="A100" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>133920.37831220793</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
+      <c r="A101" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>153112.58346712153</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
+      <c r="A102" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>136355.47752832063</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
+      <c r="A103" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>245325.38880971581</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
+      <c r="A104" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>230185.26620245154</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
+      <c r="A105" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>210590.32405486252</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
+      <c r="A106" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>114641.5484356509</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
+      <c r="A107" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>166461.27521280537</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
+      <c r="A108" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>65801.392633478477</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
+      <c r="A109" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>152584.28765293365</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
+      <c r="A110" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>177562.06185760445</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
+      <c r="A111" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>267658.57575553894</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
+      <c r="A112" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>201328.51577240459</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>112</v>
+      <c r="A113" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>194274.61683746459</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>113</v>
+      <c r="A114" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>169809.83108721228</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>114</v>
+      <c r="A115" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>78083.429202264917</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>115</v>
+      <c r="A116" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>109109.87498860269</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>116</v>
+      <c r="A117" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>210698.73307952908</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>117</v>
+      <c r="A118" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>205647.92392057503</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>118</v>
+      <c r="A119" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>147085.38994887209</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>119</v>
+      <c r="A120" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>165922.9700186713</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
+      <c r="A121" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>68228.244848802162</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
+      <c r="A122" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>139186.84360392721</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
+      <c r="A123" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>136586.37649510056</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>123</v>
+      <c r="A124" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>116448.39633415364</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>124</v>
+      <c r="A125" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>88924.506085262343</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
+      <c r="A126" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>120232.25478520429</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>126</v>
+      <c r="A127" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>211868.70612247215</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
+      <c r="A128" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>200284.77437523956</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
+      <c r="A129" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>107574.0809890793</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>129</v>
+      <c r="A130" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>231405.01559002383</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
+      <c r="A131" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>163510.91364675804</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>131</v>
+      <c r="A132" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>168922.83642740338</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>132</v>
+      <c r="A133" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>253737.2440540276</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
-        <v>133</v>
+      <c r="A134" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>170748.93989996263</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>134</v>
+      <c r="A135" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>128839.46007502092</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
+      <c r="A136" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>103964.68636864562</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>136</v>
+      <c r="A137" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>214404.66026628547</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>137</v>
+      <c r="A138" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>190515.48377598537</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
-        <v>138</v>
+      <c r="A139" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>94403.546088395204</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>139</v>
+      <c r="A140" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>136833.89548257602</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>140</v>
+      <c r="A141" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>151190.3829049429</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
+      <c r="A142" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>172845.76141064771</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>142</v>
+      <c r="A143" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>148517.8019534153</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>143</v>
+      <c r="A144" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>174442.92402725032</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>144</v>
+      <c r="A145" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>193218.19556646698</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
+      <c r="A146" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>174759.09985493825</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>146</v>
+      <c r="A147" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>173962.20201864303</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>147</v>
+      <c r="A148" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>42504.156963112444</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>148</v>
+      <c r="A149" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>154808.46086951694</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>149</v>
+      <c r="A150" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>192826.71871846315</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>150</v>
+      <c r="A151" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>137466.9795114845</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>151</v>
+      <c r="A152" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>204529.990457912</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>152</v>
+      <c r="A153" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>232219.84885685515</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
-        <v>153</v>
+      <c r="A154" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>167471.85613523767</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>154</v>
+      <c r="A155" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>76013.654004766868</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
+      <c r="A156" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>140131.42006870557</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>156</v>
+      <c r="A157" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>159206.57010265056</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>157</v>
+      <c r="A158" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>131833.73908213084</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>158</v>
+      <c r="A159" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>144877.63484675979</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>159</v>
+      <c r="A160" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>222611.5524176402</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>160</v>
+      <c r="A161" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>230939.8195531258</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>161</v>
+      <c r="A162" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>158574.49389446527</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>162</v>
+      <c r="A163" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>177094.03403155203</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>163</v>
+      <c r="A164" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>158931.98486056383</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>164</v>
+      <c r="A165" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>149898.71189118433</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>165</v>
+      <c r="A166" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>175930.92963572918</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>166</v>
+      <c r="A167" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>237710.94627853169</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>167</v>
+      <c r="A168" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>136030.59570586722</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>168</v>
+      <c r="A169" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>201090.43076167218</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>169</v>
+      <c r="A170" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>175290.77759852109</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>170</v>
+      <c r="A171" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>177391.33245818157</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>171</v>
+      <c r="A172" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>219406.6800811805</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
+      <c r="A173" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>75567.598087613296</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>173</v>
+      <c r="A174" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>151385.13017562844</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>174</v>
+      <c r="A175" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>181690.59184430362</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>175</v>
+      <c r="A176" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>140269.38435640297</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>176</v>
+      <c r="A177" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>153901.70963815384</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
-        <v>177</v>
+      <c r="A178" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>201090.43076167218</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>178</v>
+      <c r="A179" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>244118.12514783768</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>179</v>
+      <c r="A180" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>157480.72680668035</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>180</v>
+      <c r="A181" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>193691.97670824517</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>181</v>
+      <c r="A182" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>148378.506346682</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>182</v>
+      <c r="A183" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>127832.41948311242</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>183</v>
+      <c r="A184" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>164850.73554882797</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>184</v>
+      <c r="A185" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>202662.55621610189</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>185</v>
+      <c r="A186" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>95532.869185847419</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>186</v>
+      <c r="A187" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>71523.023815330613</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>187</v>
+      <c r="A188" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>145842.89543189656</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>188</v>
+      <c r="A189" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>172945.54115187359</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>189</v>
+      <c r="A190" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>142807.73539912666</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
-        <v>190</v>
+      <c r="A191" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>154975.85531000886</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
-        <v>191</v>
+      <c r="A192" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>152258.61882046502</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
-        <v>192</v>
+      <c r="A193" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>160606.8385876746</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
-        <v>193</v>
+      <c r="A194" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>195087.48966417296</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
-        <v>194</v>
+      <c r="A195" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>125083.25216536161</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
-        <v>195</v>
+      <c r="A196" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>156758.16159691275</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
-        <v>196</v>
+      <c r="A197" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>231173.97826546899</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
-        <v>197</v>
+      <c r="A198" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>198070.85525009339</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
-        <v>198</v>
+      <c r="A199" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>215731.90176149143</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
-        <v>199</v>
+      <c r="A200" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>159240.2336161655</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
-        <v>200</v>
+      <c r="A201" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>186208.16657834215</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
-        <v>201</v>
+      <c r="A202" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>185065.16545977016</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
-        <v>202</v>
+      <c r="A203" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>167604.64751828872</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
-        <v>203</v>
+      <c r="A204" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>185418.57666425122</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
-        <v>204</v>
+      <c r="A205" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>144558.54630900896</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
-        <v>205</v>
+      <c r="A206" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>148058.42480515197</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
-        <v>206</v>
+      <c r="A207" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>211804.71820982199</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
-        <v>207</v>
+      <c r="A208" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>120730.16971074075</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
-        <v>208</v>
+      <c r="A209" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>164944.58009907056</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
-        <v>209</v>
+      <c r="A210" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>163748.8744457367</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
-        <v>210</v>
+      <c r="A211" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>150517.90684134501</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
-        <v>211</v>
+      <c r="A212" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>124769.61866329245</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
-        <v>212</v>
+      <c r="A213" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>183395.91499453012</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
-        <v>213</v>
+      <c r="A214" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>146022.79598861316</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
-        <v>214</v>
+      <c r="A215" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>167960.16379305697</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
-        <v>215</v>
+      <c r="A216" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>169012.2561274817</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
-        <v>216</v>
+      <c r="A217" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>166222.70357901845</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
-        <v>217</v>
+      <c r="A218" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>133088.11726821834</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
-        <v>218</v>
+      <c r="A219" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>174224.52234793559</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
-        <v>219</v>
+      <c r="A220" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>144157.95632948441</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
-        <v>220</v>
+      <c r="A221" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>176812.11540160771</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
-        <v>221</v>
+      <c r="A222" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>149542.54251687878</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
-        <v>222</v>
+      <c r="A223" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>175698.26760791062</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
-        <v>223</v>
+      <c r="A224" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>133898.44658557791</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
-        <v>224</v>
+      <c r="A225" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>174253.30826820826</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
-        <v>225</v>
+      <c r="A226" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>111301.12476992056</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
-        <v>226</v>
+      <c r="A227" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>222445.33571526152</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
-        <v>227</v>
+      <c r="A228" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>143764.62833494364</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
-        <v>228</v>
+      <c r="A229" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>184930.23062062045</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
-        <v>229</v>
+      <c r="A230" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>169904.51302115686</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
-        <v>230</v>
+      <c r="A231" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>147705.40051211062</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
-        <v>231</v>
+      <c r="A232" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>118406.65288855338</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
-        <v>232</v>
+      <c r="A233" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>203664.7699560301</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
-        <v>233</v>
+      <c r="A234" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>151616.49197522213</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
-        <v>234</v>
+      <c r="A235" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>137194.17958206125</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
-        <v>235</v>
+      <c r="A236" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>161700.68937291508</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
-        <v>236</v>
+      <c r="A237" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>165803.81634057904</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
-        <v>237</v>
+      <c r="A238" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>178993.28486192159</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
-        <v>238</v>
+      <c r="A239" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>132438.64559967749</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
-        <v>239</v>
+      <c r="A240" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>152702.51895040835</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
-        <v>240</v>
+      <c r="A241" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>105178.64292882175</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
-        <v>241</v>
+      <c r="A242" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>126912.0002450703</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
-        <v>242</v>
+      <c r="A243" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>107204.90005242323</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
-        <v>243</v>
+      <c r="A244" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>176428.2242375706</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
-        <v>244</v>
+      <c r="A245" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>107754.88922282409</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
-        <v>245</v>
+      <c r="A246" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>165737.09777209122</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
-        <v>246</v>
+      <c r="A247" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>155757.00939959288</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
-        <v>247</v>
+      <c r="A248" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>147353.06717537253</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
-        <v>248</v>
+      <c r="A249" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>155602.65263693262</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
-        <v>249</v>
+      <c r="A250" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>157387.12810963209</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
-        <v>250</v>
+      <c r="A251" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>188751.67236302598</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
-        <v>251</v>
+      <c r="A252" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>157387.12810963209</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
-        <v>252</v>
+      <c r="A253" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>149214.1303706037</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
-        <v>253</v>
+      <c r="A254" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>141182.49664716626</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
-        <v>254</v>
+      <c r="A255" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>125330.43511976379</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
-        <v>255</v>
+      <c r="A256" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>249636.18089430785</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
-        <v>256</v>
+      <c r="A257" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>126964.80003903735</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
-        <v>257</v>
+      <c r="A258" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>152918.89172657861</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
-        <v>258</v>
+      <c r="A259" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>134880.19437614569</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
-        <v>259</v>
+      <c r="A260" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>85533.663166140715</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
-        <v>260</v>
+      <c r="A261" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>159200.51914956697</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
-        <v>261</v>
+      <c r="A262" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>152527.67899034615</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
-        <v>262</v>
+      <c r="A263" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>173161.7895845054</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
-        <v>263</v>
+      <c r="A264" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>112594.47008958731</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
-        <v>264</v>
+      <c r="A265" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>126154.94422288575</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
-        <v>265</v>
+      <c r="A266" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>152671.88024027608</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
-        <v>266</v>
+      <c r="A267" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>141309.19643114635</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
-        <v>267</v>
+      <c r="A268" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>157387.12810963209</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
-        <v>268</v>
+      <c r="A269" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>162742.68213834387</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
-        <v>269</v>
+      <c r="A270" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>193110.17067118667</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
-        <v>270</v>
+      <c r="A271" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>123069.07815825405</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
-        <v>271</v>
+      <c r="A272" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>155037.94208492659</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="s">
-        <v>272</v>
+      <c r="A273" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>101669.22491086849</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="s">
-        <v>273</v>
+      <c r="A274" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>180627.88658068964</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="s">
-        <v>274</v>
+      <c r="A275" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>137611.98115587045</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="s">
-        <v>275</v>
+      <c r="A276" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>201228.87293929289</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
-        <v>276</v>
+      <c r="A277" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>83369.860533035957</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
-        <v>277</v>
+      <c r="A278" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>226669.19480015148</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="s">
-        <v>278</v>
+      <c r="A279" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>56510.425773041847</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="s">
-        <v>279</v>
+      <c r="A280" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>151358.23568905707</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="s">
-        <v>280</v>
+      <c r="A281" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>137284.13266573334</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="s">
-        <v>281</v>
+      <c r="A282" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>126567.92632769693</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="s">
-        <v>282</v>
+      <c r="A283" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>228960.5389343671</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
-        <v>283</v>
+      <c r="A284" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>82498.072972736976</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
-        <v>284</v>
+      <c r="A285" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>122495.45920234967</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="s">
-        <v>285</v>
+      <c r="A286" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>178495.99803134744</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="s">
-        <v>286</v>
+      <c r="A287" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>173128.22034390995</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="s">
-        <v>287</v>
+      <c r="A288" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>218167.14027386624</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
-        <v>288</v>
+      <c r="A289" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>117486.85089585757</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="s">
-        <v>289</v>
+      <c r="A290" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>139588.27677594966</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
-        <v>290</v>
+      <c r="A291" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>125409.54168593518</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
-        <v>291</v>
+      <c r="A292" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>143625.77890409698</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="s">
-        <v>292</v>
+      <c r="A293" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>263396.08101549553</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="s">
-        <v>293</v>
+      <c r="A294" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>171107.63126471869</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="s">
-        <v>294</v>
+      <c r="A295" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>146850.69160877375</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="s">
-        <v>295</v>
+      <c r="A296" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>158405.8812057827</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="s">
-        <v>296</v>
+      <c r="A297" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>157193.17343214669</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
-        <v>297</v>
+      <c r="A298" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>171107.63126471869</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="s">
-        <v>298</v>
+      <c r="A299" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>175153.66639812605</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="s">
-        <v>299</v>
+      <c r="A300" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>199140.60675829346</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="s">
-        <v>300</v>
+      <c r="A301" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>217334.35049607727</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="s">
-        <v>301</v>
+      <c r="A302" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>216219.36666660593</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="s">
-        <v>302</v>
+      <c r="A303" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>206254.29004022977</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="s">
-        <v>303</v>
+      <c r="A304" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>213800.17870614497</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="s">
-        <v>304</v>
+      <c r="A305" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>244465.56120779598</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="s">
-        <v>305</v>
+      <c r="A306" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>174442.92402725032</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="s">
-        <v>306</v>
+      <c r="A307" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>193218.19556646698</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="s">
-        <v>307</v>
+      <c r="A308" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>35027.390716625261</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="s">
-        <v>308</v>
+      <c r="A309" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>174395.57673215622</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="s">
-        <v>309</v>
+      <c r="A310" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>167263.49758557681</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="s">
-        <v>310</v>
+      <c r="A311" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>55793.608659920443</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="s">
-        <v>311</v>
+      <c r="A312" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>40906.774142714101</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="s">
-        <v>312</v>
+      <c r="A313" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>196375.4889690335</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="s">
-        <v>313</v>
+      <c r="A314" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>176161.55535807236</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="s">
-        <v>314</v>
+      <c r="A315" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>141159.52521500736</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="s">
-        <v>315</v>
+      <c r="A316" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>186800.63145868611</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="s">
-        <v>316</v>
+      <c r="A317" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>185725.16192964086</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="s">
-        <v>317</v>
+      <c r="A318" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>129082.45553911074</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="s">
-        <v>318</v>
+      <c r="A319" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>137934.14649712399</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="s">
-        <v>319</v>
+      <c r="A320" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>104230.78243777137</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="s">
-        <v>320</v>
+      <c r="A321" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>207019.10443432574</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="s">
-        <v>321</v>
+      <c r="A322" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>144789.85993871969</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="s">
-        <v>322</v>
+      <c r="A323" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>147553.79213751762</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="s">
-        <v>323</v>
+      <c r="A324" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>150012.10060755161</v>
       </c>
       <c r="C324">
         <v>1</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="s">
-        <v>324</v>
+      <c r="A325" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>70478.893612933985</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="s">
-        <v>325</v>
+      <c r="A326" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>147822.87691773815</v>
       </c>
       <c r="C326">
         <v>1</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="s">
-        <v>326</v>
+      <c r="A327" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>164430.43722333829</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="s">
-        <v>327</v>
+      <c r="A328" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>158582.88525359641</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="s">
-        <v>328</v>
+      <c r="A329" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>214529.65130904637</v>
       </c>
       <c r="C329">
         <v>1</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="s">
-        <v>329</v>
+      <c r="A330" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>193518.74082246894</v>
       </c>
       <c r="C330">
         <v>1</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="s">
-        <v>330</v>
+      <c r="A331" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>180346.34953191227</v>
       </c>
       <c r="C331">
         <v>1</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="s">
-        <v>331</v>
+      <c r="A332" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>148266.42117378337</v>
       </c>
       <c r="C332">
         <v>1</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="s">
-        <v>332</v>
+      <c r="A333" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>153640.82987293316</v>
       </c>
       <c r="C333">
         <v>1</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="s">
-        <v>333</v>
+      <c r="A334" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>141854.03280344114</v>
       </c>
       <c r="C334">
         <v>1</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="s">
-        <v>334</v>
+      <c r="A335" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>149865.94188400081</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="s">
-        <v>335</v>
+      <c r="A336" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>150026.42716535137</v>
       </c>
       <c r="C336">
         <v>1</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="s">
-        <v>336</v>
+      <c r="A337" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>138488.91828116955</v>
       </c>
       <c r="C337">
         <v>1</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="s">
-        <v>337</v>
+      <c r="A338" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>174534.9143069257</v>
       </c>
       <c r="C338">
         <v>1</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="s">
-        <v>338</v>
+      <c r="A339" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>225984.45969176473</v>
       </c>
       <c r="C339">
         <v>1</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="s">
-        <v>339</v>
+      <c r="A340" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>171209.61511014283</v>
       </c>
       <c r="C340">
         <v>1</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="s">
-        <v>340</v>
+      <c r="A341" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>168627.95138567057</v>
       </c>
       <c r="C341">
         <v>1</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="s">
-        <v>341</v>
+      <c r="A342" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>132172.20311725896</v>
       </c>
       <c r="C342">
         <v>1</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="s">
-        <v>342</v>
+      <c r="A343" s="7" t="s">
+        <v>358</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>166624.0205482904</v>
       </c>
       <c r="C343">
         <v>1</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="s">
-        <v>343</v>
+      <c r="A344" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>137630.29763660731</v>
       </c>
       <c r="C344">
         <v>1</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="s">
-        <v>344</v>
+      <c r="A345" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>160754.64434404369</v>
       </c>
       <c r="C345">
         <v>1</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="s">
-        <v>345</v>
+      <c r="A346" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>253321.66920197156</v>
       </c>
       <c r="C346">
         <v>1</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="s">
-        <v>346</v>
+      <c r="A347" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>167605.41488140955</v>
       </c>
       <c r="C347">
         <v>1</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="s">
-        <v>347</v>
+      <c r="A348" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>239713.42103330151</v>
       </c>
       <c r="C348">
         <v>1</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="s">
-        <v>348</v>
+      <c r="A349" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>246615.38677556848</v>
       </c>
       <c r="C349">
         <v>1</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="s">
-        <v>349</v>
+      <c r="A350" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>211051.95916201809</v>
       </c>
       <c r="C350">
         <v>1</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="s">
-        <v>350</v>
+      <c r="A351" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>249194.91441709112</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="s">
-        <v>351</v>
+      <c r="A352" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>254700.17462678626</v>
       </c>
       <c r="C352">
         <v>1</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="s">
-        <v>352</v>
+      <c r="A353" s="7" t="s">
+        <v>368</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>162527.06350154479</v>
       </c>
       <c r="C353">
         <v>1</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="s">
-        <v>353</v>
+      <c r="A354" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>56071.391515825249</v>
       </c>
       <c r="C354">
         <v>1</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="s">
-        <v>354</v>
+      <c r="A355" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>265594.8579347576</v>
       </c>
       <c r="C355">
         <v>1</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="s">
-        <v>355</v>
+      <c r="A356" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>93519.237784156197</v>
       </c>
       <c r="C356">
         <v>1</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="s">
-        <v>356</v>
+      <c r="A357" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>114305.06415653507</v>
       </c>
       <c r="C357">
         <v>1</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="s">
-        <v>357</v>
+      <c r="A358" s="7" t="s">
+        <v>373</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>146030.3352219252</v>
       </c>
       <c r="C358">
         <v>1</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="s">
-        <v>358</v>
+      <c r="A359" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>210065.03172282418</v>
       </c>
       <c r="C359">
         <v>1</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="s">
-        <v>359</v>
+      <c r="A360" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>211726.81493463041</v>
       </c>
       <c r="C360">
         <v>1</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="s">
-        <v>360</v>
+      <c r="A361" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>192230.58352031338</v>
       </c>
       <c r="C361">
         <v>1</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="s">
-        <v>361</v>
+      <c r="A362" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>190879.95651779219</v>
       </c>
       <c r="C362">
         <v>1</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="s">
-        <v>362</v>
+      <c r="A363" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>192230.58352031338</v>
       </c>
       <c r="C363">
         <v>1</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="s">
-        <v>363</v>
+      <c r="A364" s="7" t="s">
+        <v>380</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>184330.89353033714</v>
       </c>
       <c r="C364">
         <v>1</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="s">
-        <v>364</v>
+      <c r="A365" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>218929.65588347733</v>
       </c>
       <c r="C365">
         <v>1</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="s">
-        <v>365</v>
+      <c r="A366" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C366">
         <v>1</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="s">
-        <v>366</v>
+      <c r="A367" s="7" t="s">
+        <v>383</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>184483.28202739559</v>
       </c>
       <c r="C367">
         <v>1</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="s">
-        <v>367</v>
+      <c r="A368" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>191004.77607970519</v>
       </c>
       <c r="C368">
         <v>1</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="s">
-        <v>368</v>
+      <c r="A369" s="7" t="s">
+        <v>385</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C369">
         <v>1</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="s">
-        <v>369</v>
+      <c r="A370" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C370">
         <v>1</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="s">
-        <v>370</v>
+      <c r="A371" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>176646.26018642599</v>
       </c>
       <c r="C371">
         <v>1</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="s">
-        <v>371</v>
+      <c r="A372" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>233131.74237659317</v>
       </c>
       <c r="C372">
         <v>1</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="s">
-        <v>372</v>
+      <c r="A373" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>76247.54316583238</v>
       </c>
       <c r="C373">
         <v>1</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="s">
-        <v>373</v>
+      <c r="A374" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C374">
         <v>1</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="s">
-        <v>374</v>
+      <c r="A375" s="7" t="s">
+        <v>391</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C375">
         <v>1</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="1" t="s">
-        <v>375</v>
+      <c r="A376" s="7" t="s">
+        <v>392</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C376">
         <v>1</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="1" t="s">
-        <v>376</v>
+      <c r="A377" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>66040.62765278919</v>
       </c>
       <c r="C377">
         <v>1</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="1" t="s">
-        <v>377</v>
+      <c r="A378" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>119756.71577017927</v>
       </c>
       <c r="C378">
         <v>1</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="1" t="s">
-        <v>378</v>
+      <c r="A379" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>185033.08236171637</v>
       </c>
       <c r="C379">
         <v>1</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="s">
-        <v>379</v>
+      <c r="A380" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C380">
         <v>1</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="s">
-        <v>380</v>
+      <c r="A381" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>234791.34590793872</v>
       </c>
       <c r="C381">
         <v>1</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="s">
-        <v>381</v>
+      <c r="A382" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>194469.15718595299</v>
       </c>
       <c r="C382">
         <v>1</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="s">
-        <v>382</v>
+      <c r="A383" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>228612.90152308185</v>
       </c>
       <c r="C383">
         <v>1</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="s">
-        <v>383</v>
+      <c r="A384" s="7" t="s">
+        <v>400</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>204218.66971796501</v>
       </c>
       <c r="C384">
         <v>1</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="1" t="s">
-        <v>384</v>
+      <c r="A385" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C385">
         <v>1</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="1" t="s">
-        <v>385</v>
+      <c r="A386" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>202560.2566780145</v>
       </c>
       <c r="C386">
         <v>1</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="1" t="s">
-        <v>386</v>
+      <c r="A387" s="7" t="s">
+        <v>403</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>187310.83586857235</v>
       </c>
       <c r="C387">
         <v>1</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="1" t="s">
-        <v>387</v>
+      <c r="A388" s="7" t="s">
+        <v>404</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>180888.98842913637</v>
       </c>
       <c r="C388">
         <v>1</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="1" t="s">
-        <v>388</v>
+      <c r="A389" s="7" t="s">
+        <v>405</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>198917.18547389828</v>
       </c>
       <c r="C389">
         <v>1</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="s">
-        <v>389</v>
+      <c r="A390" s="7" t="s">
+        <v>406</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>222197.40751272874</v>
       </c>
       <c r="C390">
         <v>1</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="s">
-        <v>390</v>
+      <c r="A391" s="7" t="s">
+        <v>408</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C391">
         <v>1</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="s">
-        <v>391</v>
+      <c r="A392" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C392">
         <v>1</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="1" t="s">
-        <v>392</v>
+      <c r="A393" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>149600.42321488447</v>
       </c>
       <c r="C393">
         <v>1</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="1" t="s">
-        <v>393</v>
+      <c r="A394" s="7" t="s">
+        <v>411</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>149600.42321488447</v>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="1" t="s">
-        <v>394</v>
+      <c r="A395" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>198389.92381993463</v>
       </c>
       <c r="C395">
         <v>1</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="1" t="s">
-        <v>395</v>
+      <c r="A396" s="7" t="s">
+        <v>413</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>221449.81956797894</v>
       </c>
       <c r="C396">
         <v>1</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="s">
-        <v>396</v>
+      <c r="A397" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>226864.62546483401</v>
       </c>
       <c r="C397">
         <v>1</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="1" t="s">
-        <v>397</v>
+      <c r="A398" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>72339.318975709029</v>
       </c>
       <c r="C398">
         <v>1</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="1" t="s">
-        <v>398</v>
+      <c r="A399" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>105485.62600642636</v>
       </c>
       <c r="C399">
         <v>1</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="1" t="s">
-        <v>399</v>
+      <c r="A400" s="7" t="s">
+        <v>417</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>104757.94458008943</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="1" t="s">
-        <v>400</v>
+      <c r="A401" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C401">
         <v>1</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="1" t="s">
-        <v>401</v>
+      <c r="A402" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>251534.53543029173</v>
       </c>
       <c r="C402">
         <v>1</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="1" t="s">
-        <v>402</v>
+      <c r="A403" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>170615.94092867716</v>
       </c>
       <c r="C403">
         <v>1</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="1" t="s">
-        <v>403</v>
+      <c r="A404" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C404">
         <v>1</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="1" t="s">
-        <v>404</v>
+      <c r="A405" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>115885.86603180323</v>
       </c>
       <c r="C405">
         <v>1</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="s">
-        <v>405</v>
+      <c r="A406" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C406">
         <v>1</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="1" t="s">
-        <v>406</v>
+      <c r="A407" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C407">
         <v>1</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="1" t="s">
-        <v>407</v>
+      <c r="A408" s="7" t="s">
+        <v>425</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C408">
         <v>1</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="1" t="s">
-        <v>408</v>
+      <c r="A409" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>176646.26018642599</v>
       </c>
       <c r="C409">
         <v>1</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="1" t="s">
-        <v>409</v>
+      <c r="A410" s="7" t="s">
+        <v>428</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>85453.924112670124</v>
       </c>
       <c r="C410">
         <v>1</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="1" t="s">
-        <v>410</v>
+      <c r="A411" s="7" t="s">
+        <v>429</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>165633.46230691631</v>
       </c>
       <c r="C411">
         <v>1</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="1" t="s">
-        <v>411</v>
+      <c r="A412" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C412">
         <v>1</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="1" t="s">
-        <v>412</v>
+      <c r="A413" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>267911.94501880504</v>
       </c>
       <c r="C413">
         <v>1</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="1" t="s">
-        <v>413</v>
+      <c r="A414" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>187310.83586857235</v>
       </c>
       <c r="C414">
         <v>1</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="1" t="s">
-        <v>414</v>
+      <c r="A415" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>165017.38030243121</v>
       </c>
       <c r="C415">
         <v>1</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="1" t="s">
-        <v>415</v>
+      <c r="A416" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C416">
         <v>1</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="1" t="s">
-        <v>416</v>
+      <c r="A417" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>187310.83586857235</v>
       </c>
       <c r="C417">
         <v>1</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="1" t="s">
-        <v>417</v>
+      <c r="A418" s="7" t="s">
+        <v>436</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>187310.83586857235</v>
       </c>
       <c r="C418">
         <v>1</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="1" t="s">
-        <v>418</v>
+      <c r="A419" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C419">
         <v>1</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="1" t="s">
-        <v>419</v>
+      <c r="A420" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>207328.11096291748</v>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="1" t="s">
-        <v>420</v>
+      <c r="A421" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>204218.66971796501</v>
       </c>
       <c r="C421">
         <v>1</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="1" t="s">
-        <v>421</v>
+      <c r="A422" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>87461.18692968355</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="1" t="s">
-        <v>422</v>
+      <c r="A423" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>157236.39019691691</v>
       </c>
       <c r="C423">
         <v>1</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="1" t="s">
-        <v>423</v>
+      <c r="A424" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>176646.26018642599</v>
       </c>
       <c r="C424">
         <v>1</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="1" t="s">
-        <v>424</v>
+      <c r="A425" s="7" t="s">
+        <v>443</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="1" t="s">
-        <v>425</v>
+      <c r="A426" s="7" t="s">
+        <v>444</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>202054.56404788385</v>
       </c>
       <c r="C426">
         <v>1</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="1" t="s">
-        <v>426</v>
+      <c r="A427" s="7" t="s">
+        <v>445</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="C427">
         <v>1</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="1" t="s">
-        <v>427</v>
+      <c r="A428" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>66040.62765278919</v>
       </c>
       <c r="C428">
         <v>1</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="1" t="s">
-        <v>428</v>
+      <c r="A429" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C429">
         <v>1</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="1" t="s">
-        <v>429</v>
+      <c r="A430" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C430">
         <v>1</v>
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="1" t="s">
-        <v>430</v>
+      <c r="A431" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C431">
         <v>1</v>
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="1" t="s">
-        <v>431</v>
+      <c r="A432" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>149600.42321488447</v>
       </c>
       <c r="C432">
         <v>1</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="1" t="s">
-        <v>432</v>
+      <c r="A433" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="1" t="s">
-        <v>433</v>
+      <c r="A434" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C434">
         <v>1</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="1" t="s">
-        <v>434</v>
+      <c r="A435" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C435">
         <v>1</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="1" t="s">
-        <v>435</v>
+      <c r="A436" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C436">
         <v>1</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="1" t="s">
-        <v>436</v>
+      <c r="A437" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>155025.13736452055</v>
       </c>
       <c r="C437">
         <v>1</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="1" t="s">
-        <v>437</v>
+      <c r="A438" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="1" t="s">
-        <v>438</v>
+      <c r="A439" s="7" t="s">
+        <v>459</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>235667.62680279854</v>
       </c>
       <c r="C439">
         <v>1</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="1" t="s">
-        <v>439</v>
+      <c r="A440" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="B440">
-        <v>1</v>
+        <v>94218.846671380161</v>
       </c>
       <c r="C440">
         <v>1</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="1" t="s">
-        <v>440</v>
+      <c r="A441" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>164523.53044467137</v>
       </c>
       <c r="C441">
         <v>1</v>
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="1" t="s">
-        <v>441</v>
+      <c r="A442" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>173618.22167312854</v>
       </c>
       <c r="C442">
         <v>1</v>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="1" t="s">
-        <v>442</v>
+      <c r="A443" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C443">
         <v>1</v>
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="1" t="s">
-        <v>443</v>
+      <c r="A444" s="7" t="s">
+        <v>465</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>99248.858600816267</v>
       </c>
       <c r="C444">
         <v>1</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="1" t="s">
-        <v>444</v>
+      <c r="A445" s="7" t="s">
+        <v>466</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C445">
         <v>1</v>
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="1" t="s">
-        <v>445</v>
+      <c r="A446" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>87916.983453714987</v>
       </c>
       <c r="C446">
         <v>1</v>
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="1" t="s">
-        <v>446</v>
+      <c r="A447" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="B447">
-        <v>1</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C447">
         <v>1</v>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="1" t="s">
-        <v>447</v>
+      <c r="A448" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C448">
         <v>1</v>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="1" t="s">
-        <v>448</v>
+      <c r="A449" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>64635.268768999667</v>
       </c>
       <c r="C449">
         <v>1</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="1" t="s">
-        <v>449</v>
+      <c r="A450" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="C450">
         <v>1</v>
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="1" t="s">
-        <v>450</v>
+      <c r="A451" s="7" t="s">
+        <v>472</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>156214.51933285675</v>
       </c>
       <c r="C451">
         <v>1</v>
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="1" t="s">
-        <v>451</v>
+      <c r="A452" s="7" t="s">
+        <v>473</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>198917.18547389828</v>
       </c>
       <c r="C452">
         <v>1</v>
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="1" t="s">
-        <v>452</v>
+      <c r="A453" s="7" t="s">
+        <v>474</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>251534.53543029173</v>
       </c>
       <c r="C453">
         <v>1</v>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="1" t="s">
-        <v>453</v>
+      <c r="A454" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C454">
         <v>1</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="1" t="s">
-        <v>454</v>
+      <c r="A455" s="7" t="s">
+        <v>476</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>176646.26018642599</v>
       </c>
       <c r="C455">
         <v>1</v>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="1" t="s">
-        <v>455</v>
+      <c r="A456" s="7" t="s">
+        <v>477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C456">
         <v>1</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="1" t="s">
-        <v>456</v>
+      <c r="A457" s="7" t="s">
+        <v>478</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>149600.42321488447</v>
       </c>
       <c r="C457">
         <v>1</v>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="1" t="s">
-        <v>457</v>
+      <c r="A458" s="7" t="s">
+        <v>479</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>131160.25577959785</v>
       </c>
       <c r="C458">
         <v>1</v>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="1" t="s">
-        <v>458</v>
+      <c r="A459" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>160500.47003921086</v>
       </c>
       <c r="C459">
         <v>1</v>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="1" t="s">
-        <v>459</v>
+      <c r="A460" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>244859.8301367386</v>
       </c>
       <c r="C460">
         <v>1</v>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="1" t="s">
-        <v>460</v>
+      <c r="A461" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>173437.7511362854</v>
       </c>
       <c r="C461">
         <v>1</v>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="1" t="s">
-        <v>461</v>
+      <c r="A462" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>146229.75768529618</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="1" t="s">
-        <v>462</v>
+      <c r="A463" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>150242.61299235813</v>
       </c>
       <c r="C463">
         <v>1</v>
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="1" t="s">
-        <v>463</v>
+      <c r="A464" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>210627.47561252621</v>
       </c>
       <c r="C464">
         <v>1</v>
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="1" t="s">
-        <v>464</v>
+      <c r="A465" s="7" t="s">
+        <v>486</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>146229.75768529618</v>
       </c>
       <c r="C465">
         <v>1</v>
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="1" t="s">
-        <v>465</v>
+      <c r="A466" s="7" t="s">
+        <v>487</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>145542.84731651307</v>
       </c>
       <c r="C466">
         <v>1</v>
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="1" t="s">
-        <v>466</v>
+      <c r="A467" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>146498.42839597134</v>
       </c>
       <c r="C467">
         <v>1</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="1" t="s">
-        <v>467</v>
+      <c r="A468" s="7" t="s">
+        <v>489</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>128788.20450634682</v>
       </c>
       <c r="C468">
         <v>1</v>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="1" t="s">
-        <v>468</v>
+      <c r="A469" s="7" t="s">
+        <v>490</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>163484.60414464097</v>
       </c>
       <c r="C469">
         <v>1</v>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="1" t="s">
-        <v>469</v>
+      <c r="A470" s="7" t="s">
+        <v>492</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>161611.03789285509</v>
       </c>
       <c r="C470">
         <v>1</v>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="1" t="s">
-        <v>470</v>
+      <c r="A471" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>200584.97539832708</v>
       </c>
       <c r="C471">
         <v>1</v>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="1" t="s">
-        <v>471</v>
+      <c r="A472" s="7" t="s">
+        <v>494</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>201271.63180762209</v>
       </c>
       <c r="C472">
         <v>1</v>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="1" t="s">
-        <v>472</v>
+      <c r="A473" s="7" t="s">
+        <v>495</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>228125.78563218768</v>
       </c>
       <c r="C473">
         <v>1</v>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="1" t="s">
-        <v>473</v>
+      <c r="A474" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>213647.69401151894</v>
       </c>
       <c r="C474">
         <v>1</v>
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="1" t="s">
-        <v>474</v>
+      <c r="A475" s="7" t="s">
+        <v>497</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>133477.84883408522</v>
       </c>
       <c r="C475">
         <v>1</v>
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="1" t="s">
-        <v>475</v>
+      <c r="A476" s="7" t="s">
+        <v>498</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>231377.68682897839</v>
       </c>
       <c r="C476">
         <v>1</v>
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="1" t="s">
-        <v>476</v>
+      <c r="A477" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>202749.22938669249</v>
       </c>
       <c r="C477">
         <v>1</v>
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="1" t="s">
-        <v>477</v>
+      <c r="A478" s="7" t="s">
+        <v>500</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>132119.51426370442</v>
       </c>
       <c r="C478">
         <v>1</v>
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="1" t="s">
-        <v>478</v>
+      <c r="A479" s="7" t="s">
+        <v>501</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>153177.35847845947</v>
       </c>
       <c r="C479">
         <v>1</v>
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="1" t="s">
-        <v>479</v>
+      <c r="A480" s="7" t="s">
+        <v>502</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>132119.51426370442</v>
       </c>
       <c r="C480">
         <v>1</v>
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="1" t="s">
-        <v>480</v>
+      <c r="A481" s="7" t="s">
+        <v>503</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>132135.86111613427</v>
       </c>
       <c r="C481">
         <v>1</v>
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="1" t="s">
-        <v>481</v>
+      <c r="A482" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>155436.28780641497</v>
       </c>
       <c r="C482">
         <v>1</v>
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="1" t="s">
-        <v>482</v>
+      <c r="A483" s="7" t="s">
+        <v>505</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>153343.00640551225</v>
       </c>
       <c r="C483">
         <v>1</v>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="1" t="s">
-        <v>483</v>
+      <c r="A484" s="7" t="s">
+        <v>506</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>196131.8531536152</v>
       </c>
       <c r="C484">
         <v>1</v>
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="1" t="s">
-        <v>484</v>
+      <c r="A485" s="7" t="s">
+        <v>507</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>131583.79097934856</v>
       </c>
       <c r="C485">
         <v>1</v>
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="1" t="s">
-        <v>485</v>
+      <c r="A486" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>166743.38000865729</v>
       </c>
       <c r="C486">
         <v>1</v>
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="1" t="s">
-        <v>486</v>
+      <c r="A487" s="7" t="s">
+        <v>509</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>163149.19885785136</v>
       </c>
       <c r="C487">
         <v>1</v>
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="1" t="s">
-        <v>487</v>
+      <c r="A488" s="7" t="s">
+        <v>510</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>144878.3631743564</v>
       </c>
       <c r="C488">
         <v>1</v>
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="1" t="s">
-        <v>488</v>
+      <c r="A489" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>232771.09706798923</v>
       </c>
       <c r="C489">
         <v>1</v>
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="1" t="s">
-        <v>489</v>
+      <c r="A490" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>167312.0258462413</v>
       </c>
       <c r="C490">
         <v>1</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="1" t="s">
-        <v>490</v>
+      <c r="A491" s="7" t="s">
+        <v>514</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>156731.00426675405</v>
       </c>
       <c r="C491">
         <v>1</v>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="1" t="s">
-        <v>491</v>
+      <c r="A492" s="7" t="s">
+        <v>515</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>214604.49102606458</v>
       </c>
       <c r="C492">
         <v>1</v>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="1" t="s">
-        <v>492</v>
+      <c r="A493" s="7" t="s">
+        <v>516</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>196440.78197396416</v>
       </c>
       <c r="C493">
         <v>1</v>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="1" t="s">
-        <v>493</v>
+      <c r="A494" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>210121.86131208244</v>
       </c>
       <c r="C494">
         <v>1</v>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="1" t="s">
-        <v>494</v>
+      <c r="A495" s="7" t="s">
+        <v>518</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>141308.53545223345</v>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="1" t="s">
-        <v>495</v>
+      <c r="A496" s="7" t="s">
+        <v>519</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>166103.02406516293</v>
       </c>
       <c r="C496">
         <v>1</v>
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="1" t="s">
-        <v>496</v>
+      <c r="A497" s="7" t="s">
+        <v>520</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>169403.3314025687</v>
       </c>
       <c r="C497">
         <v>1</v>
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="1" t="s">
-        <v>497</v>
+      <c r="A498" s="7" t="s">
+        <v>521</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>170253.07562054344</v>
       </c>
       <c r="C498">
         <v>1</v>
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="1" t="s">
-        <v>498</v>
+      <c r="A499" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>151469.27375132401</v>
       </c>
       <c r="C499">
         <v>1</v>
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="1" t="s">
-        <v>499</v>
+      <c r="A500" s="7" t="s">
+        <v>523</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>72148.823708028212</v>
       </c>
       <c r="C500">
         <v>1</v>
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="1" t="s">
-        <v>500</v>
+      <c r="A501" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>124701.77397569323</v>
       </c>
       <c r="C501">
         <v>1</v>
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="1" t="s">
-        <v>501</v>
+      <c r="A502" s="7" t="s">
+        <v>525</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>184089.35836469047</v>
       </c>
       <c r="C502">
         <v>1</v>
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="1" t="s">
-        <v>502</v>
+      <c r="A503" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>124701.77397569323</v>
       </c>
       <c r="C503">
         <v>1</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="1" t="s">
-        <v>503</v>
+      <c r="A504" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>170973.63911233016</v>
       </c>
       <c r="C504">
         <v>1</v>
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="1" t="s">
-        <v>504</v>
+      <c r="A505" s="7" t="s">
+        <v>528</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>153088.98560545756</v>
       </c>
       <c r="C505">
         <v>1</v>
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="1" t="s">
-        <v>505</v>
+      <c r="A506" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>226642.09785247577</v>
       </c>
       <c r="C506">
         <v>1</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="1" t="s">
-        <v>506</v>
+      <c r="A507" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>148261.95348778431</v>
       </c>
       <c r="C507">
         <v>1</v>
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="1" t="s">
-        <v>507</v>
+      <c r="A508" s="7" t="s">
+        <v>531</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>109537.49863380885</v>
       </c>
       <c r="C508">
         <v>1</v>
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="1" t="s">
-        <v>508</v>
+      <c r="A509" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>149454.65507611321</v>
       </c>
       <c r="C509">
         <v>1</v>
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="1" t="s">
-        <v>509</v>
+      <c r="A510" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>181893.77237919508</v>
       </c>
       <c r="C510">
         <v>1</v>
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="1" t="s">
-        <v>510</v>
+      <c r="A511" s="7" t="s">
+        <v>534</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>220524.59507695551</v>
       </c>
       <c r="C511">
         <v>1</v>
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="1" t="s">
-        <v>511</v>
+      <c r="A512" s="7" t="s">
+        <v>535</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>139591.15565262942</v>
       </c>
       <c r="C512">
         <v>1</v>
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="1" t="s">
-        <v>512</v>
+      <c r="A513" s="7" t="s">
+        <v>536</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>158165.78717522789</v>
       </c>
       <c r="C513">
         <v>1</v>
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="1" t="s">
-        <v>513</v>
+      <c r="A514" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>146500.40996607646</v>
       </c>
       <c r="C514">
         <v>1</v>
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="1" t="s">
-        <v>514</v>
+      <c r="A515" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>161471.23079627281</v>
       </c>
       <c r="C515">
         <v>1</v>
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="1" t="s">
-        <v>515</v>
+      <c r="A516" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>157000.16854251677</v>
       </c>
       <c r="C516">
         <v>1</v>
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="1" t="s">
-        <v>516</v>
+      <c r="A517" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>206371.7875659065</v>
       </c>
       <c r="C517">
         <v>1</v>
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="1" t="s">
-        <v>517</v>
+      <c r="A518" s="7" t="s">
+        <v>541</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>163981.52903786278</v>
       </c>
       <c r="C518">
         <v>1</v>
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="1" t="s">
-        <v>518</v>
+      <c r="A519" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>166095.48659207861</v>
       </c>
       <c r="C519">
         <v>1</v>
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="1" t="s">
-        <v>519</v>
+      <c r="A520" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>163708.18989533841</v>
       </c>
       <c r="C520">
         <v>1</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="1" t="s">
-        <v>520</v>
+      <c r="A521" s="7" t="s">
+        <v>544</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>183634.87580602377</v>
       </c>
       <c r="C521">
         <v>1</v>
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="1" t="s">
-        <v>521</v>
+      <c r="A522" s="7" t="s">
+        <v>545</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>175427.23909660731</v>
       </c>
       <c r="C522">
         <v>1</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="1" t="s">
-        <v>522</v>
+      <c r="A523" s="7" t="s">
+        <v>546</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>176479.36022123866</v>
       </c>
       <c r="C523">
         <v>1</v>
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="1" t="s">
-        <v>523</v>
+      <c r="A524" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>129423.03747817855</v>
       </c>
       <c r="C524">
         <v>1</v>
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="1" t="s">
-        <v>524</v>
+      <c r="A525" s="7" t="s">
+        <v>548</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>147315.15380459718</v>
       </c>
       <c r="C525">
         <v>1</v>
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="1" t="s">
-        <v>525</v>
+      <c r="A526" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>156286.24732753809</v>
       </c>
       <c r="C526">
         <v>1</v>
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="1" t="s">
-        <v>526</v>
+      <c r="A527" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>143219.11323532771</v>
       </c>
       <c r="C527">
         <v>1</v>
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="1" t="s">
-        <v>527</v>
+      <c r="A528" s="7" t="s">
+        <v>551</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>201522.90502422905</v>
       </c>
       <c r="C528">
         <v>1</v>
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="1" t="s">
-        <v>528</v>
+      <c r="A529" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>202810.33113827329</v>
       </c>
       <c r="C529">
         <v>1</v>
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="1" t="s">
-        <v>529</v>
+      <c r="A530" s="7" t="s">
+        <v>555</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>92945.687362785902</v>
       </c>
       <c r="C530">
         <v>1</v>

--- a/outputs-HGR-r202/test-p__Firmicutes_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Firmicutes_split_pruned.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t>Row</t>
   </si>
   <si>
-    <t>even_MAG-GUT1024.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT1029.fa</t>
   </si>
   <si>
@@ -157,12 +154,6 @@
     <t>even_MAG-GUT1370.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT1377.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT1384.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT1391.fa</t>
   </si>
   <si>
@@ -313,15 +304,9 @@
     <t>even_MAG-GUT19932.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT2019.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT2025.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT2060.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT21168.fa</t>
   </si>
   <si>
@@ -454,21 +439,12 @@
     <t>even_MAG-GUT3561.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT36009.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT36103.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT36616.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT36756.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT36794.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT40025.fa</t>
   </si>
   <si>
@@ -550,9 +526,6 @@
     <t>even_MAG-GUT44104.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT44112.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT44177.fa</t>
   </si>
   <si>
@@ -604,9 +577,6 @@
     <t>even_MAG-GUT4616.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT46265.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT46437.fa</t>
   </si>
   <si>
@@ -616,9 +586,6 @@
     <t>even_MAG-GUT46658.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT46722.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT46868.fa</t>
   </si>
   <si>
@@ -856,9 +823,6 @@
     <t>even_MAG-GUT49541.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT49542.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT49567.fa</t>
   </si>
   <si>
@@ -892,9 +856,6 @@
     <t>even_MAG-GUT57264.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT57416.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT57442.fa</t>
   </si>
   <si>
@@ -970,9 +931,6 @@
     <t>even_MAG-GUT63569.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT65341.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT65576.fa</t>
   </si>
   <si>
@@ -1015,18 +973,12 @@
     <t>even_MAG-GUT68111.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT68234.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT68629.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT68640.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT69384.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT69501.fa</t>
   </si>
   <si>
@@ -1138,9 +1090,6 @@
     <t>even_MAG-GUT83507.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT86727.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT86747.fa</t>
   </si>
   <si>
@@ -1237,9 +1186,6 @@
     <t>even_MAG-GUT89577.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT89608.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT89668.fa</t>
   </si>
   <si>
@@ -1297,9 +1243,6 @@
     <t>even_MAG-GUT89992.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT90020.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT90054.fa</t>
   </si>
   <si>
@@ -1384,12 +1327,6 @@
     <t>even_MAG-GUT90636.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT90671.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT90682.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT90683.fa</t>
   </si>
   <si>
@@ -1399,9 +1336,6 @@
     <t>even_MAG-GUT90730.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT90775.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT90777.fa</t>
   </si>
   <si>
@@ -1489,9 +1423,6 @@
     <t>even_MAG-GUT91320.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT91328.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT91330.fa</t>
   </si>
   <si>
@@ -1555,9 +1486,6 @@
     <t>even_MAG-GUT91546.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT91566.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT91568.fa</t>
   </si>
   <si>
@@ -1670,12 +1598,6 @@
   </si>
   <si>
     <t>even_MAG-GUT945.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT9688.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT9692.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT9766.fa</t>
@@ -1708,7 +1630,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1718,26 +1640,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1747,7 +1657,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C556"/>
+  <dimension ref="A1:C530"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -1756,19 +1666,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>557</v>
+      <c r="B1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>169847.27824439283</v>
@@ -1778,8 +1688,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>147131.49443046929</v>
@@ -1789,8 +1699,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>162704.69093131143</v>
@@ -1800,8 +1710,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>162704.69093131143</v>
@@ -1811,8 +1721,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>140439.38246630103</v>
@@ -1822,8 +1732,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>177585.99571410901</v>
@@ -1833,8 +1743,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>149800.4560272214</v>
@@ -1844,8 +1754,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>162881.29132158557</v>
@@ -1855,8 +1765,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>185115.65684755723</v>
@@ -1866,8 +1776,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>160636.17606311041</v>
@@ -1877,8 +1787,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>157300.96156866025</v>
@@ -1888,8 +1798,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>184415.10462670712</v>
@@ -1899,8 +1809,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>148840.31673414953</v>
@@ -1910,8 +1820,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>153017.83531351452</v>
@@ -1921,8 +1831,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>147593.13073130249</v>
@@ -1932,8 +1842,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>132145.68667741361</v>
@@ -1943,8 +1853,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>163486.42406102261</v>
@@ -1954,8 +1864,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
+      <c r="A19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>153277.88941000827</v>
@@ -1965,8 +1875,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>235341.4154790371</v>
@@ -1976,8 +1886,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
+      <c r="A21" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>131111.96266308709</v>
@@ -1987,8 +1897,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>149932.97516385181</v>
@@ -1998,8 +1908,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>196688.04933156</v>
@@ -2009,8 +1919,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>24</v>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>149932.97516385181</v>
@@ -2020,8 +1930,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>25</v>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>158411.99751821658</v>
@@ -2031,8 +1941,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
-        <v>26</v>
+      <c r="A26" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>239509.92538106692</v>
@@ -2042,8 +1952,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>27</v>
+      <c r="A27" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B27">
         <v>155770.05242457124</v>
@@ -2053,8 +1963,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>28</v>
+      <c r="A28" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B28">
         <v>153468.6622118885</v>
@@ -2064,8 +1974,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
-        <v>29</v>
+      <c r="A29" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B29">
         <v>171406.91412196532</v>
@@ -2075,8 +1985,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>30</v>
+      <c r="A30" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B30">
         <v>174615.45098376935</v>
@@ -2086,8 +1996,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>31</v>
+      <c r="A31" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>161632.82309128944</v>
@@ -2097,8 +2007,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>32</v>
+      <c r="A32" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>153468.6622118885</v>
@@ -2108,8 +2018,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
-        <v>33</v>
+      <c r="A33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B33">
         <v>153530.57212021662</v>
@@ -2119,8 +2029,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
-        <v>34</v>
+      <c r="A34" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B34">
         <v>170960.88957682575</v>
@@ -2130,8 +2040,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
-        <v>35</v>
+      <c r="A35" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B35">
         <v>213805.83195370605</v>
@@ -2141,8 +2051,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
-        <v>36</v>
+      <c r="A36" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B36">
         <v>206221.33772142758</v>
@@ -2152,8 +2062,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
-        <v>37</v>
+      <c r="A37" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B37">
         <v>197067.0994665543</v>
@@ -2163,8 +2073,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
-        <v>38</v>
+      <c r="A38" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B38">
         <v>197633.80897367175</v>
@@ -2174,8 +2084,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
-        <v>39</v>
+      <c r="A39" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B39">
         <v>149963.14191940075</v>
@@ -2185,8 +2095,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
-        <v>40</v>
+      <c r="A40" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B40">
         <v>149159.51874908581</v>
@@ -2196,8 +2106,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
-        <v>41</v>
+      <c r="A41" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B41">
         <v>161159.25597371461</v>
@@ -2207,8 +2117,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
-        <v>42</v>
+      <c r="A42" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B42">
         <v>153277.88941000827</v>
@@ -2218,8 +2128,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
-        <v>43</v>
+      <c r="A43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B43">
         <v>229337.42882749587</v>
@@ -2229,8 +2139,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
-        <v>44</v>
+      <c r="A44" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B44">
         <v>155155.90282722164</v>
@@ -2240,8 +2150,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
-        <v>45</v>
+      <c r="A45" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B45">
         <v>173147.13686673576</v>
@@ -2251,8 +2161,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
-        <v>46</v>
+      <c r="A46" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B46">
         <v>191397.55581327816</v>
@@ -2262,8 +2172,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
-        <v>49</v>
+      <c r="A47" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B47">
         <v>214373.95101641264</v>
@@ -2273,8 +2183,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
-        <v>50</v>
+      <c r="A48" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B48">
         <v>164733.50636263637</v>
@@ -2284,8 +2194,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
-        <v>51</v>
+      <c r="A49" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B49">
         <v>195417.11717593949</v>
@@ -2295,8 +2205,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>52</v>
+      <c r="A50" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B50">
         <v>179343.58090840065</v>
@@ -2306,8 +2216,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
-        <v>53</v>
+      <c r="A51" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B51">
         <v>212955.28508280063</v>
@@ -2317,8 +2227,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
-        <v>54</v>
+      <c r="A52" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B52">
         <v>131681.68532252318</v>
@@ -2328,8 +2238,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
-        <v>55</v>
+      <c r="A53" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B53">
         <v>180932.95111604861</v>
@@ -2339,8 +2249,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
-        <v>56</v>
+      <c r="A54" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B54">
         <v>204340.48339915037</v>
@@ -2350,8 +2260,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
-        <v>57</v>
+      <c r="A55" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B55">
         <v>155518.61163899439</v>
@@ -2361,8 +2271,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
-        <v>58</v>
+      <c r="A56" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B56">
         <v>205173.68396630301</v>
@@ -2372,8 +2282,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
-        <v>59</v>
+      <c r="A57" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B57">
         <v>241718.19248475792</v>
@@ -2383,8 +2293,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
-        <v>60</v>
+      <c r="A58" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B58">
         <v>129275.39645470575</v>
@@ -2394,8 +2304,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
-        <v>61</v>
+      <c r="A59" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B59">
         <v>234164.05242031103</v>
@@ -2405,8 +2315,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
-        <v>62</v>
+      <c r="A60" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B60">
         <v>146439.53621954776</v>
@@ -2416,8 +2326,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
-        <v>63</v>
+      <c r="A61" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B61">
         <v>238202.46858584264</v>
@@ -2427,8 +2337,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="s">
-        <v>64</v>
+      <c r="A62" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B62">
         <v>216806.45773401821</v>
@@ -2438,8 +2348,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
-        <v>65</v>
+      <c r="A63" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B63">
         <v>151745.69070323091</v>
@@ -2449,8 +2359,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
-        <v>66</v>
+      <c r="A64" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B64">
         <v>129275.39645470575</v>
@@ -2460,8 +2370,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="s">
-        <v>67</v>
+      <c r="A65" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B65">
         <v>205263.37212343805</v>
@@ -2471,8 +2381,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
-        <v>68</v>
+      <c r="A66" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B66">
         <v>285967.2572401776</v>
@@ -2482,8 +2392,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
-        <v>69</v>
+      <c r="A67" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B67">
         <v>97515.167203660909</v>
@@ -2493,8 +2403,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="s">
-        <v>70</v>
+      <c r="A68" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B68">
         <v>222208.81951874038</v>
@@ -2504,8 +2414,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
-        <v>71</v>
+      <c r="A69" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B69">
         <v>170327.1398967733</v>
@@ -2515,8 +2425,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
-        <v>72</v>
+      <c r="A70" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B70">
         <v>154854.5306451252</v>
@@ -2526,8 +2436,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="s">
-        <v>73</v>
+      <c r="A71" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B71">
         <v>172338.95774340647</v>
@@ -2537,8 +2447,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
-        <v>74</v>
+      <c r="A72" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B72">
         <v>245649.41709691228</v>
@@ -2548,8 +2458,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="s">
-        <v>75</v>
+      <c r="A73" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B73">
         <v>155075.24693124639</v>
@@ -2559,8 +2469,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="s">
-        <v>76</v>
+      <c r="A74" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B74">
         <v>180879.11735578688</v>
@@ -2570,8 +2480,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
-        <v>77</v>
+      <c r="A75" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B75">
         <v>140302.24014945072</v>
@@ -2581,8 +2491,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="s">
-        <v>78</v>
+      <c r="A76" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B76">
         <v>159392.96795963866</v>
@@ -2592,8 +2502,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
-        <v>79</v>
+      <c r="A77" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B77">
         <v>173793.60499523804</v>
@@ -2603,8 +2513,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="s">
-        <v>80</v>
+      <c r="A78" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B78">
         <v>173751.23137356565</v>
@@ -2614,8 +2524,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7" t="s">
-        <v>81</v>
+      <c r="A79" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B79">
         <v>174321.87560976887</v>
@@ -2625,8 +2535,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="s">
-        <v>82</v>
+      <c r="A80" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B80">
         <v>170889.61637996126</v>
@@ -2636,8 +2546,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="s">
-        <v>83</v>
+      <c r="A81" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B81">
         <v>157805.26070181411</v>
@@ -2647,8 +2557,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7" t="s">
-        <v>84</v>
+      <c r="A82" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B82">
         <v>174321.87560976887</v>
@@ -2658,8 +2568,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="s">
-        <v>85</v>
+      <c r="A83" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B83">
         <v>222689.63105944573</v>
@@ -2669,8 +2579,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7" t="s">
-        <v>86</v>
+      <c r="A84" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B84">
         <v>153038.97270848358</v>
@@ -2680,8 +2590,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="s">
-        <v>87</v>
+      <c r="A85" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B85">
         <v>164404.68695180395</v>
@@ -2691,8 +2601,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="7" t="s">
-        <v>88</v>
+      <c r="A86" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B86">
         <v>164095.50691534346</v>
@@ -2702,8 +2612,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="s">
-        <v>89</v>
+      <c r="A87" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B87">
         <v>142261.49533755681</v>
@@ -2713,8 +2623,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7" t="s">
-        <v>90</v>
+      <c r="A88" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B88">
         <v>148374.72928937923</v>
@@ -2724,8 +2634,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="7" t="s">
-        <v>91</v>
+      <c r="A89" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B89">
         <v>150959.32164999555</v>
@@ -2735,8 +2645,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7" t="s">
-        <v>92</v>
+      <c r="A90" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B90">
         <v>174321.87560976887</v>
@@ -2746,8 +2656,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7" t="s">
-        <v>93</v>
+      <c r="A91" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B91">
         <v>172707.18657562422</v>
@@ -2757,8 +2667,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7" t="s">
-        <v>94</v>
+      <c r="A92" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B92">
         <v>232666.55098724377</v>
@@ -2768,8 +2678,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="s">
-        <v>95</v>
+      <c r="A93" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B93">
         <v>192385.56304150919</v>
@@ -2779,8 +2689,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="7" t="s">
-        <v>96</v>
+      <c r="A94" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B94">
         <v>162660.59626347449</v>
@@ -2790,8 +2700,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7" t="s">
-        <v>97</v>
+      <c r="A95" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B95">
         <v>164863.46359461098</v>
@@ -2801,8 +2711,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="7" t="s">
-        <v>98</v>
+      <c r="A96" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B96">
         <v>160984.10380766666</v>
@@ -2812,8 +2722,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7" t="s">
-        <v>100</v>
+      <c r="A97" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B97">
         <v>107261.77941438118</v>
@@ -2823,8 +2733,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="s">
-        <v>102</v>
+      <c r="A98" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B98">
         <v>68366.751566141174</v>
@@ -2834,8 +2744,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7" t="s">
-        <v>103</v>
+      <c r="A99" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B99">
         <v>106709.6269118924</v>
@@ -2845,8 +2755,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="s">
-        <v>104</v>
+      <c r="A100" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B100">
         <v>133920.37831220793</v>
@@ -2856,8 +2766,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7" t="s">
-        <v>105</v>
+      <c r="A101" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B101">
         <v>153112.58346712153</v>
@@ -2867,8 +2777,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="7" t="s">
-        <v>106</v>
+      <c r="A102" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B102">
         <v>136355.47752832063</v>
@@ -2878,8 +2788,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="7" t="s">
-        <v>107</v>
+      <c r="A103" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B103">
         <v>245325.38880971581</v>
@@ -2889,8 +2799,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="7" t="s">
-        <v>108</v>
+      <c r="A104" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B104">
         <v>230185.26620245154</v>
@@ -2900,8 +2810,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="7" t="s">
-        <v>109</v>
+      <c r="A105" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B105">
         <v>210590.32405486252</v>
@@ -2911,8 +2821,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="7" t="s">
-        <v>110</v>
+      <c r="A106" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B106">
         <v>114641.5484356509</v>
@@ -2922,8 +2832,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="7" t="s">
-        <v>111</v>
+      <c r="A107" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B107">
         <v>166461.27521280537</v>
@@ -2933,8 +2843,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="7" t="s">
-        <v>112</v>
+      <c r="A108" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B108">
         <v>65801.392633478477</v>
@@ -2944,8 +2854,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="7" t="s">
-        <v>113</v>
+      <c r="A109" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B109">
         <v>152584.28765293365</v>
@@ -2955,8 +2865,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="7" t="s">
-        <v>114</v>
+      <c r="A110" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B110">
         <v>177562.06185760445</v>
@@ -2966,8 +2876,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="7" t="s">
-        <v>115</v>
+      <c r="A111" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B111">
         <v>267658.57575553894</v>
@@ -2977,8 +2887,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="7" t="s">
-        <v>116</v>
+      <c r="A112" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B112">
         <v>201328.51577240459</v>
@@ -2988,8 +2898,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="7" t="s">
-        <v>117</v>
+      <c r="A113" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B113">
         <v>194274.61683746459</v>
@@ -2999,8 +2909,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="7" t="s">
-        <v>118</v>
+      <c r="A114" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B114">
         <v>169809.83108721228</v>
@@ -3010,8 +2920,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="7" t="s">
-        <v>119</v>
+      <c r="A115" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B115">
         <v>78083.429202264917</v>
@@ -3021,8 +2931,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="7" t="s">
-        <v>120</v>
+      <c r="A116" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B116">
         <v>109109.87498860269</v>
@@ -3032,8 +2942,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="7" t="s">
-        <v>121</v>
+      <c r="A117" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B117">
         <v>210698.73307952908</v>
@@ -3043,8 +2953,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="7" t="s">
-        <v>122</v>
+      <c r="A118" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B118">
         <v>205647.92392057503</v>
@@ -3054,8 +2964,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="7" t="s">
-        <v>123</v>
+      <c r="A119" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B119">
         <v>147085.38994887209</v>
@@ -3065,8 +2975,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="7" t="s">
-        <v>124</v>
+      <c r="A120" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B120">
         <v>165922.9700186713</v>
@@ -3076,8 +2986,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="7" t="s">
-        <v>125</v>
+      <c r="A121" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B121">
         <v>68228.244848802162</v>
@@ -3087,8 +2997,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="7" t="s">
-        <v>126</v>
+      <c r="A122" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B122">
         <v>139186.84360392721</v>
@@ -3098,8 +3008,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="7" t="s">
-        <v>127</v>
+      <c r="A123" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B123">
         <v>136586.37649510056</v>
@@ -3109,8 +3019,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="7" t="s">
-        <v>128</v>
+      <c r="A124" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B124">
         <v>116448.39633415364</v>
@@ -3120,8 +3030,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="7" t="s">
-        <v>129</v>
+      <c r="A125" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B125">
         <v>88924.506085262343</v>
@@ -3131,8 +3041,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="7" t="s">
-        <v>130</v>
+      <c r="A126" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B126">
         <v>120232.25478520429</v>
@@ -3142,8 +3052,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="7" t="s">
-        <v>131</v>
+      <c r="A127" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B127">
         <v>211868.70612247215</v>
@@ -3153,8 +3063,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="7" t="s">
-        <v>132</v>
+      <c r="A128" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B128">
         <v>200284.77437523956</v>
@@ -3164,8 +3074,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="7" t="s">
-        <v>133</v>
+      <c r="A129" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B129">
         <v>107574.0809890793</v>
@@ -3175,8 +3085,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="7" t="s">
-        <v>134</v>
+      <c r="A130" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B130">
         <v>231405.01559002383</v>
@@ -3186,8 +3096,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="7" t="s">
-        <v>135</v>
+      <c r="A131" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B131">
         <v>163510.91364675804</v>
@@ -3197,8 +3107,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="7" t="s">
-        <v>136</v>
+      <c r="A132" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B132">
         <v>168922.83642740338</v>
@@ -3208,8 +3118,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="7" t="s">
-        <v>137</v>
+      <c r="A133" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B133">
         <v>253737.2440540276</v>
@@ -3219,8 +3129,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="7" t="s">
-        <v>138</v>
+      <c r="A134" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B134">
         <v>170748.93989996263</v>
@@ -3230,8 +3140,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="7" t="s">
-        <v>139</v>
+      <c r="A135" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B135">
         <v>128839.46007502092</v>
@@ -3241,8 +3151,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="7" t="s">
-        <v>140</v>
+      <c r="A136" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B136">
         <v>103964.68636864562</v>
@@ -3252,8 +3162,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="7" t="s">
-        <v>141</v>
+      <c r="A137" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B137">
         <v>214404.66026628547</v>
@@ -3263,8 +3173,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="7" t="s">
-        <v>142</v>
+      <c r="A138" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B138">
         <v>190515.48377598537</v>
@@ -3274,8 +3184,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="7" t="s">
-        <v>143</v>
+      <c r="A139" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B139">
         <v>94403.546088395204</v>
@@ -3285,8 +3195,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="7" t="s">
-        <v>144</v>
+      <c r="A140" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B140">
         <v>136833.89548257602</v>
@@ -3296,8 +3206,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="7" t="s">
-        <v>145</v>
+      <c r="A141" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B141">
         <v>151190.3829049429</v>
@@ -3307,8 +3217,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="7" t="s">
-        <v>147</v>
+      <c r="A142" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B142">
         <v>172845.76141064771</v>
@@ -3318,8 +3228,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="7" t="s">
-        <v>149</v>
+      <c r="A143" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B143">
         <v>148517.8019534153</v>
@@ -3329,8 +3239,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="7" t="s">
-        <v>151</v>
+      <c r="A144" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B144">
         <v>174442.92402725032</v>
@@ -3340,8 +3250,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="7" t="s">
-        <v>152</v>
+      <c r="A145" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B145">
         <v>193218.19556646698</v>
@@ -3351,8 +3261,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="7" t="s">
-        <v>153</v>
+      <c r="A146" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B146">
         <v>174759.09985493825</v>
@@ -3362,8 +3272,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="7" t="s">
-        <v>154</v>
+      <c r="A147" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B147">
         <v>173962.20201864303</v>
@@ -3373,8 +3283,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="7" t="s">
-        <v>155</v>
+      <c r="A148" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B148">
         <v>42504.156963112444</v>
@@ -3384,8 +3294,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="7" t="s">
-        <v>156</v>
+      <c r="A149" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B149">
         <v>154808.46086951694</v>
@@ -3395,8 +3305,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="7" t="s">
-        <v>157</v>
+      <c r="A150" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B150">
         <v>192826.71871846315</v>
@@ -3406,8 +3316,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="7" t="s">
-        <v>158</v>
+      <c r="A151" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B151">
         <v>137466.9795114845</v>
@@ -3417,8 +3327,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="7" t="s">
-        <v>159</v>
+      <c r="A152" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B152">
         <v>204529.990457912</v>
@@ -3428,8 +3338,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="7" t="s">
-        <v>160</v>
+      <c r="A153" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B153">
         <v>232219.84885685515</v>
@@ -3439,8 +3349,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="7" t="s">
-        <v>161</v>
+      <c r="A154" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B154">
         <v>167471.85613523767</v>
@@ -3450,8 +3360,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="7" t="s">
-        <v>162</v>
+      <c r="A155" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B155">
         <v>76013.654004766868</v>
@@ -3461,8 +3371,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="7" t="s">
-        <v>163</v>
+      <c r="A156" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B156">
         <v>140131.42006870557</v>
@@ -3472,8 +3382,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="7" t="s">
-        <v>164</v>
+      <c r="A157" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B157">
         <v>159206.57010265056</v>
@@ -3483,8 +3393,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="7" t="s">
-        <v>165</v>
+      <c r="A158" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B158">
         <v>131833.73908213084</v>
@@ -3494,8 +3404,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="7" t="s">
-        <v>166</v>
+      <c r="A159" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B159">
         <v>144877.63484675979</v>
@@ -3505,8 +3415,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="7" t="s">
-        <v>167</v>
+      <c r="A160" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B160">
         <v>222611.5524176402</v>
@@ -3516,8 +3426,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="7" t="s">
-        <v>168</v>
+      <c r="A161" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B161">
         <v>230939.8195531258</v>
@@ -3527,8 +3437,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="7" t="s">
-        <v>169</v>
+      <c r="A162" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B162">
         <v>158574.49389446527</v>
@@ -3538,8 +3448,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="7" t="s">
-        <v>170</v>
+      <c r="A163" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B163">
         <v>177094.03403155203</v>
@@ -3549,8 +3459,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="7" t="s">
-        <v>171</v>
+      <c r="A164" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B164">
         <v>158931.98486056383</v>
@@ -3560,8 +3470,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="7" t="s">
-        <v>172</v>
+      <c r="A165" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B165">
         <v>149898.71189118433</v>
@@ -3571,8 +3481,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="7" t="s">
-        <v>173</v>
+      <c r="A166" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B166">
         <v>175930.92963572918</v>
@@ -3582,8 +3492,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="7" t="s">
-        <v>174</v>
+      <c r="A167" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B167">
         <v>237710.94627853169</v>
@@ -3593,8 +3503,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="7" t="s">
-        <v>175</v>
+      <c r="A168" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B168">
         <v>136030.59570586722</v>
@@ -3604,8 +3514,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="7" t="s">
-        <v>176</v>
+      <c r="A169" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B169">
         <v>201090.43076167218</v>
@@ -3615,8 +3525,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="7" t="s">
-        <v>177</v>
+      <c r="A170" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B170">
         <v>175290.77759852109</v>
@@ -3626,8 +3536,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="7" t="s">
-        <v>179</v>
+      <c r="A171" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B171">
         <v>177391.33245818157</v>
@@ -3637,8 +3547,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="7" t="s">
-        <v>180</v>
+      <c r="A172" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B172">
         <v>219406.6800811805</v>
@@ -3648,8 +3558,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="7" t="s">
-        <v>181</v>
+      <c r="A173" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B173">
         <v>75567.598087613296</v>
@@ -3659,8 +3569,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="7" t="s">
-        <v>182</v>
+      <c r="A174" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B174">
         <v>151385.13017562844</v>
@@ -3670,8 +3580,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="7" t="s">
-        <v>183</v>
+      <c r="A175" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B175">
         <v>181690.59184430362</v>
@@ -3681,8 +3591,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="7" t="s">
-        <v>184</v>
+      <c r="A176" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B176">
         <v>140269.38435640297</v>
@@ -3692,8 +3602,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="7" t="s">
-        <v>185</v>
+      <c r="A177" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B177">
         <v>153901.70963815384</v>
@@ -3703,8 +3613,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="7" t="s">
-        <v>186</v>
+      <c r="A178" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B178">
         <v>201090.43076167218</v>
@@ -3714,8 +3624,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="7" t="s">
-        <v>187</v>
+      <c r="A179" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B179">
         <v>244118.12514783768</v>
@@ -3725,8 +3635,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="7" t="s">
-        <v>188</v>
+      <c r="A180" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B180">
         <v>157480.72680668035</v>
@@ -3736,8 +3646,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="7" t="s">
-        <v>189</v>
+      <c r="A181" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B181">
         <v>193691.97670824517</v>
@@ -3747,8 +3657,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="7" t="s">
-        <v>190</v>
+      <c r="A182" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B182">
         <v>148378.506346682</v>
@@ -3758,8 +3668,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="7" t="s">
-        <v>191</v>
+      <c r="A183" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B183">
         <v>127832.41948311242</v>
@@ -3769,8 +3679,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="7" t="s">
-        <v>192</v>
+      <c r="A184" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B184">
         <v>164850.73554882797</v>
@@ -3780,8 +3690,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="7" t="s">
-        <v>193</v>
+      <c r="A185" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B185">
         <v>202662.55621610189</v>
@@ -3791,8 +3701,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="7" t="s">
-        <v>194</v>
+      <c r="A186" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B186">
         <v>95532.869185847419</v>
@@ -3802,8 +3712,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="7" t="s">
-        <v>195</v>
+      <c r="A187" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B187">
         <v>71523.023815330613</v>
@@ -3813,8 +3723,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="7" t="s">
-        <v>197</v>
+      <c r="A188" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B188">
         <v>145842.89543189656</v>
@@ -3824,8 +3734,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="7" t="s">
-        <v>198</v>
+      <c r="A189" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B189">
         <v>172945.54115187359</v>
@@ -3835,8 +3745,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="7" t="s">
-        <v>199</v>
+      <c r="A190" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B190">
         <v>142807.73539912666</v>
@@ -3846,8 +3756,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="7" t="s">
-        <v>201</v>
+      <c r="A191" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B191">
         <v>154975.85531000886</v>
@@ -3857,8 +3767,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="7" t="s">
-        <v>202</v>
+      <c r="A192" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B192">
         <v>152258.61882046502</v>
@@ -3868,8 +3778,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="7" t="s">
-        <v>203</v>
+      <c r="A193" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B193">
         <v>160606.8385876746</v>
@@ -3879,8 +3789,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="7" t="s">
-        <v>204</v>
+      <c r="A194" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B194">
         <v>195087.48966417296</v>
@@ -3890,8 +3800,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="7" t="s">
-        <v>205</v>
+      <c r="A195" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B195">
         <v>125083.25216536161</v>
@@ -3901,8 +3811,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="7" t="s">
-        <v>206</v>
+      <c r="A196" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B196">
         <v>156758.16159691275</v>
@@ -3912,8 +3822,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="7" t="s">
-        <v>207</v>
+      <c r="A197" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B197">
         <v>231173.97826546899</v>
@@ -3923,8 +3833,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="7" t="s">
-        <v>208</v>
+      <c r="A198" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B198">
         <v>198070.85525009339</v>
@@ -3934,8 +3844,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="7" t="s">
-        <v>209</v>
+      <c r="A199" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B199">
         <v>215731.90176149143</v>
@@ -3945,8 +3855,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="7" t="s">
-        <v>210</v>
+      <c r="A200" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B200">
         <v>159240.2336161655</v>
@@ -3956,8 +3866,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="7" t="s">
-        <v>211</v>
+      <c r="A201" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B201">
         <v>186208.16657834215</v>
@@ -3967,8 +3877,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="7" t="s">
-        <v>212</v>
+      <c r="A202" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B202">
         <v>185065.16545977016</v>
@@ -3978,8 +3888,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="7" t="s">
-        <v>213</v>
+      <c r="A203" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B203">
         <v>167604.64751828872</v>
@@ -3989,8 +3899,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="7" t="s">
-        <v>214</v>
+      <c r="A204" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B204">
         <v>185418.57666425122</v>
@@ -4000,8 +3910,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="7" t="s">
-        <v>215</v>
+      <c r="A205" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B205">
         <v>144558.54630900896</v>
@@ -4011,8 +3921,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="7" t="s">
-        <v>216</v>
+      <c r="A206" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B206">
         <v>148058.42480515197</v>
@@ -4022,8 +3932,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="7" t="s">
-        <v>217</v>
+      <c r="A207" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B207">
         <v>211804.71820982199</v>
@@ -4033,8 +3943,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="7" t="s">
-        <v>218</v>
+      <c r="A208" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B208">
         <v>120730.16971074075</v>
@@ -4044,8 +3954,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="7" t="s">
-        <v>219</v>
+      <c r="A209" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B209">
         <v>164944.58009907056</v>
@@ -4055,8 +3965,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="7" t="s">
-        <v>220</v>
+      <c r="A210" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B210">
         <v>163748.8744457367</v>
@@ -4066,8 +3976,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="7" t="s">
-        <v>221</v>
+      <c r="A211" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B211">
         <v>150517.90684134501</v>
@@ -4077,8 +3987,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="7" t="s">
-        <v>222</v>
+      <c r="A212" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B212">
         <v>124769.61866329245</v>
@@ -4088,8 +3998,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="7" t="s">
-        <v>223</v>
+      <c r="A213" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B213">
         <v>183395.91499453012</v>
@@ -4099,8 +4009,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="7" t="s">
-        <v>224</v>
+      <c r="A214" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B214">
         <v>146022.79598861316</v>
@@ -4110,8 +4020,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="7" t="s">
-        <v>225</v>
+      <c r="A215" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B215">
         <v>167960.16379305697</v>
@@ -4121,8 +4031,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="7" t="s">
-        <v>226</v>
+      <c r="A216" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B216">
         <v>169012.2561274817</v>
@@ -4132,8 +4042,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="7" t="s">
-        <v>227</v>
+      <c r="A217" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B217">
         <v>166222.70357901845</v>
@@ -4143,8 +4053,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="7" t="s">
-        <v>228</v>
+      <c r="A218" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B218">
         <v>133088.11726821834</v>
@@ -4154,8 +4064,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="7" t="s">
-        <v>229</v>
+      <c r="A219" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B219">
         <v>174224.52234793559</v>
@@ -4165,8 +4075,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="7" t="s">
-        <v>230</v>
+      <c r="A220" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B220">
         <v>144157.95632948441</v>
@@ -4176,8 +4086,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="7" t="s">
-        <v>231</v>
+      <c r="A221" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B221">
         <v>176812.11540160771</v>
@@ -4187,8 +4097,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="7" t="s">
-        <v>232</v>
+      <c r="A222" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B222">
         <v>149542.54251687878</v>
@@ -4198,8 +4108,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="7" t="s">
-        <v>233</v>
+      <c r="A223" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B223">
         <v>175698.26760791062</v>
@@ -4209,8 +4119,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="7" t="s">
-        <v>234</v>
+      <c r="A224" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B224">
         <v>133898.44658557791</v>
@@ -4220,8 +4130,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="7" t="s">
-        <v>235</v>
+      <c r="A225" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B225">
         <v>174253.30826820826</v>
@@ -4231,8 +4141,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="7" t="s">
-        <v>236</v>
+      <c r="A226" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B226">
         <v>111301.12476992056</v>
@@ -4242,8 +4152,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="7" t="s">
-        <v>237</v>
+      <c r="A227" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B227">
         <v>222445.33571526152</v>
@@ -4253,8 +4163,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="7" t="s">
-        <v>238</v>
+      <c r="A228" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="B228">
         <v>143764.62833494364</v>
@@ -4264,8 +4174,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="7" t="s">
-        <v>239</v>
+      <c r="A229" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B229">
         <v>184930.23062062045</v>
@@ -4275,8 +4185,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="7" t="s">
-        <v>240</v>
+      <c r="A230" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B230">
         <v>169904.51302115686</v>
@@ -4286,8 +4196,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="7" t="s">
-        <v>241</v>
+      <c r="A231" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B231">
         <v>147705.40051211062</v>
@@ -4297,8 +4207,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="7" t="s">
-        <v>242</v>
+      <c r="A232" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B232">
         <v>118406.65288855338</v>
@@ -4308,8 +4218,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="7" t="s">
-        <v>243</v>
+      <c r="A233" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B233">
         <v>203664.7699560301</v>
@@ -4319,8 +4229,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="7" t="s">
-        <v>244</v>
+      <c r="A234" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="B234">
         <v>151616.49197522213</v>
@@ -4330,8 +4240,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="7" t="s">
-        <v>245</v>
+      <c r="A235" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="B235">
         <v>137194.17958206125</v>
@@ -4341,8 +4251,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="7" t="s">
-        <v>246</v>
+      <c r="A236" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="B236">
         <v>161700.68937291508</v>
@@ -4352,8 +4262,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="7" t="s">
-        <v>247</v>
+      <c r="A237" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B237">
         <v>165803.81634057904</v>
@@ -4363,8 +4273,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="7" t="s">
-        <v>248</v>
+      <c r="A238" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="B238">
         <v>178993.28486192159</v>
@@ -4374,8 +4284,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="7" t="s">
-        <v>249</v>
+      <c r="A239" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="B239">
         <v>132438.64559967749</v>
@@ -4385,8 +4295,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="7" t="s">
-        <v>250</v>
+      <c r="A240" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B240">
         <v>152702.51895040835</v>
@@ -4396,8 +4306,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="7" t="s">
-        <v>251</v>
+      <c r="A241" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="B241">
         <v>105178.64292882175</v>
@@ -4407,8 +4317,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="7" t="s">
-        <v>252</v>
+      <c r="A242" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B242">
         <v>126912.0002450703</v>
@@ -4418,8 +4328,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="7" t="s">
-        <v>253</v>
+      <c r="A243" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B243">
         <v>107204.90005242323</v>
@@ -4429,8 +4339,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="7" t="s">
-        <v>254</v>
+      <c r="A244" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="B244">
         <v>176428.2242375706</v>
@@ -4440,8 +4350,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="7" t="s">
-        <v>255</v>
+      <c r="A245" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="B245">
         <v>107754.88922282409</v>
@@ -4451,8 +4361,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="7" t="s">
-        <v>256</v>
+      <c r="A246" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="B246">
         <v>165737.09777209122</v>
@@ -4462,8 +4372,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="7" t="s">
-        <v>257</v>
+      <c r="A247" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="B247">
         <v>155757.00939959288</v>
@@ -4473,8 +4383,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="7" t="s">
-        <v>258</v>
+      <c r="A248" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B248">
         <v>147353.06717537253</v>
@@ -4484,8 +4394,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="7" t="s">
-        <v>259</v>
+      <c r="A249" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B249">
         <v>155602.65263693262</v>
@@ -4495,8 +4405,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="7" t="s">
-        <v>260</v>
+      <c r="A250" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B250">
         <v>157387.12810963209</v>
@@ -4506,8 +4416,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="7" t="s">
-        <v>261</v>
+      <c r="A251" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="B251">
         <v>188751.67236302598</v>
@@ -4517,8 +4427,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="7" t="s">
-        <v>262</v>
+      <c r="A252" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B252">
         <v>157387.12810963209</v>
@@ -4528,8 +4438,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="7" t="s">
-        <v>263</v>
+      <c r="A253" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B253">
         <v>149214.1303706037</v>
@@ -4539,8 +4449,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="7" t="s">
-        <v>264</v>
+      <c r="A254" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="B254">
         <v>141182.49664716626</v>
@@ -4550,8 +4460,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="7" t="s">
-        <v>265</v>
+      <c r="A255" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="B255">
         <v>125330.43511976379</v>
@@ -4561,8 +4471,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="7" t="s">
-        <v>266</v>
+      <c r="A256" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B256">
         <v>249636.18089430785</v>
@@ -4572,8 +4482,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="7" t="s">
-        <v>267</v>
+      <c r="A257" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B257">
         <v>126964.80003903735</v>
@@ -4583,8 +4493,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="7" t="s">
-        <v>268</v>
+      <c r="A258" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B258">
         <v>152918.89172657861</v>
@@ -4594,8 +4504,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="7" t="s">
-        <v>269</v>
+      <c r="A259" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="B259">
         <v>134880.19437614569</v>
@@ -4605,8 +4515,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="7" t="s">
-        <v>270</v>
+      <c r="A260" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B260">
         <v>85533.663166140715</v>
@@ -4616,8 +4526,8 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="7" t="s">
-        <v>271</v>
+      <c r="A261" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="B261">
         <v>159200.51914956697</v>
@@ -4627,8 +4537,8 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="7" t="s">
-        <v>272</v>
+      <c r="A262" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="B262">
         <v>152527.67899034615</v>
@@ -4638,8 +4548,8 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="7" t="s">
-        <v>273</v>
+      <c r="A263" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="B263">
         <v>173161.7895845054</v>
@@ -4649,8 +4559,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="7" t="s">
-        <v>274</v>
+      <c r="A264" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B264">
         <v>112594.47008958731</v>
@@ -4660,8 +4570,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="7" t="s">
-        <v>275</v>
+      <c r="A265" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="B265">
         <v>126154.94422288575</v>
@@ -4671,8 +4581,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="7" t="s">
-        <v>276</v>
+      <c r="A266" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B266">
         <v>152671.88024027608</v>
@@ -4682,8 +4592,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="7" t="s">
-        <v>277</v>
+      <c r="A267" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B267">
         <v>141309.19643114635</v>
@@ -4693,8 +4603,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="7" t="s">
-        <v>278</v>
+      <c r="A268" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B268">
         <v>157387.12810963209</v>
@@ -4704,8 +4614,8 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="7" t="s">
-        <v>279</v>
+      <c r="A269" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B269">
         <v>162742.68213834387</v>
@@ -4715,8 +4625,8 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="7" t="s">
-        <v>281</v>
+      <c r="A270" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="B270">
         <v>193110.17067118667</v>
@@ -4726,8 +4636,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="7" t="s">
-        <v>282</v>
+      <c r="A271" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="B271">
         <v>123069.07815825405</v>
@@ -4737,8 +4647,8 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="7" t="s">
-        <v>283</v>
+      <c r="A272" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B272">
         <v>155037.94208492659</v>
@@ -4748,8 +4658,8 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="7" t="s">
-        <v>284</v>
+      <c r="A273" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="B273">
         <v>101669.22491086849</v>
@@ -4759,8 +4669,8 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="7" t="s">
-        <v>285</v>
+      <c r="A274" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="B274">
         <v>180627.88658068964</v>
@@ -4770,8 +4680,8 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="7" t="s">
-        <v>286</v>
+      <c r="A275" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B275">
         <v>137611.98115587045</v>
@@ -4781,8 +4691,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="7" t="s">
-        <v>287</v>
+      <c r="A276" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="B276">
         <v>201228.87293929289</v>
@@ -4792,8 +4702,8 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="7" t="s">
-        <v>288</v>
+      <c r="A277" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="B277">
         <v>83369.860533035957</v>
@@ -4803,8 +4713,8 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="7" t="s">
-        <v>289</v>
+      <c r="A278" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="B278">
         <v>226669.19480015148</v>
@@ -4814,8 +4724,8 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="7" t="s">
-        <v>290</v>
+      <c r="A279" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="B279">
         <v>56510.425773041847</v>
@@ -4825,8 +4735,8 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="7" t="s">
-        <v>291</v>
+      <c r="A280" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="B280">
         <v>151358.23568905707</v>
@@ -4836,8 +4746,8 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="7" t="s">
-        <v>293</v>
+      <c r="A281" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="B281">
         <v>137284.13266573334</v>
@@ -4847,8 +4757,8 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="7" t="s">
-        <v>294</v>
+      <c r="A282" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="B282">
         <v>126567.92632769693</v>
@@ -4858,8 +4768,8 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="7" t="s">
-        <v>295</v>
+      <c r="A283" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="B283">
         <v>228960.5389343671</v>
@@ -4869,8 +4779,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="7" t="s">
-        <v>296</v>
+      <c r="A284" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="B284">
         <v>82498.072972736976</v>
@@ -4880,8 +4790,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="7" t="s">
-        <v>297</v>
+      <c r="A285" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="B285">
         <v>122495.45920234967</v>
@@ -4891,8 +4801,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="7" t="s">
-        <v>298</v>
+      <c r="A286" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B286">
         <v>178495.99803134744</v>
@@ -4902,8 +4812,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="7" t="s">
-        <v>299</v>
+      <c r="A287" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="B287">
         <v>173128.22034390995</v>
@@ -4913,8 +4823,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="7" t="s">
-        <v>300</v>
+      <c r="A288" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B288">
         <v>218167.14027386624</v>
@@ -4924,8 +4834,8 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="7" t="s">
-        <v>301</v>
+      <c r="A289" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B289">
         <v>117486.85089585757</v>
@@ -4935,8 +4845,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="7" t="s">
-        <v>302</v>
+      <c r="A290" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="B290">
         <v>139588.27677594966</v>
@@ -4946,8 +4856,8 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="7" t="s">
-        <v>303</v>
+      <c r="A291" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B291">
         <v>125409.54168593518</v>
@@ -4957,8 +4867,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="7" t="s">
-        <v>304</v>
+      <c r="A292" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B292">
         <v>143625.77890409698</v>
@@ -4968,8 +4878,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="7" t="s">
-        <v>305</v>
+      <c r="A293" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B293">
         <v>263396.08101549553</v>
@@ -4979,8 +4889,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="7" t="s">
-        <v>306</v>
+      <c r="A294" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="B294">
         <v>171107.63126471869</v>
@@ -4990,8 +4900,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="7" t="s">
-        <v>307</v>
+      <c r="A295" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="B295">
         <v>146850.69160877375</v>
@@ -5001,8 +4911,8 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="7" t="s">
-        <v>308</v>
+      <c r="A296" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="B296">
         <v>158405.8812057827</v>
@@ -5012,8 +4922,8 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="7" t="s">
-        <v>309</v>
+      <c r="A297" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="B297">
         <v>157193.17343214669</v>
@@ -5023,8 +4933,8 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="7" t="s">
-        <v>310</v>
+      <c r="A298" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="B298">
         <v>171107.63126471869</v>
@@ -5034,8 +4944,8 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="7" t="s">
-        <v>311</v>
+      <c r="A299" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="B299">
         <v>175153.66639812605</v>
@@ -5045,8 +4955,8 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="7" t="s">
-        <v>312</v>
+      <c r="A300" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="B300">
         <v>199140.60675829346</v>
@@ -5056,8 +4966,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="7" t="s">
-        <v>313</v>
+      <c r="A301" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B301">
         <v>217334.35049607727</v>
@@ -5067,8 +4977,8 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="7" t="s">
-        <v>314</v>
+      <c r="A302" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B302">
         <v>216219.36666660593</v>
@@ -5078,8 +4988,8 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="7" t="s">
-        <v>315</v>
+      <c r="A303" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="B303">
         <v>206254.29004022977</v>
@@ -5089,8 +4999,8 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="7" t="s">
-        <v>316</v>
+      <c r="A304" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="B304">
         <v>213800.17870614497</v>
@@ -5100,8 +5010,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="7" t="s">
-        <v>317</v>
+      <c r="A305" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="B305">
         <v>244465.56120779598</v>
@@ -5111,8 +5021,8 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="7" t="s">
-        <v>319</v>
+      <c r="A306" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B306">
         <v>174442.92402725032</v>
@@ -5122,8 +5032,8 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="7" t="s">
-        <v>320</v>
+      <c r="A307" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="B307">
         <v>193218.19556646698</v>
@@ -5133,8 +5043,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="7" t="s">
-        <v>321</v>
+      <c r="A308" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="B308">
         <v>35027.390716625261</v>
@@ -5144,8 +5054,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="7" t="s">
-        <v>322</v>
+      <c r="A309" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="B309">
         <v>174395.57673215622</v>
@@ -5155,8 +5065,8 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="7" t="s">
-        <v>323</v>
+      <c r="A310" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B310">
         <v>167263.49758557681</v>
@@ -5166,8 +5076,8 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="7" t="s">
-        <v>324</v>
+      <c r="A311" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="B311">
         <v>55793.608659920443</v>
@@ -5177,8 +5087,8 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="7" t="s">
-        <v>325</v>
+      <c r="A312" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="B312">
         <v>40906.774142714101</v>
@@ -5188,8 +5098,8 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="7" t="s">
-        <v>326</v>
+      <c r="A313" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="B313">
         <v>196375.4889690335</v>
@@ -5199,8 +5109,8 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="7" t="s">
-        <v>327</v>
+      <c r="A314" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="B314">
         <v>176161.55535807236</v>
@@ -5210,8 +5120,8 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="7" t="s">
-        <v>328</v>
+      <c r="A315" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B315">
         <v>141159.52521500736</v>
@@ -5221,8 +5131,8 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="7" t="s">
-        <v>329</v>
+      <c r="A316" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="B316">
         <v>186800.63145868611</v>
@@ -5232,8 +5142,8 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="7" t="s">
-        <v>330</v>
+      <c r="A317" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="B317">
         <v>185725.16192964086</v>
@@ -5243,8 +5153,8 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="7" t="s">
-        <v>331</v>
+      <c r="A318" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="B318">
         <v>129082.45553911074</v>
@@ -5254,8 +5164,8 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="7" t="s">
-        <v>332</v>
+      <c r="A319" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="B319">
         <v>137934.14649712399</v>
@@ -5265,8 +5175,8 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="7" t="s">
-        <v>334</v>
+      <c r="A320" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="B320">
         <v>104230.78243777137</v>
@@ -5276,8 +5186,8 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="7" t="s">
-        <v>335</v>
+      <c r="A321" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="B321">
         <v>207019.10443432574</v>
@@ -5287,8 +5197,8 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="7" t="s">
-        <v>337</v>
+      <c r="A322" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="B322">
         <v>144789.85993871969</v>
@@ -5298,8 +5208,8 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="7" t="s">
-        <v>338</v>
+      <c r="A323" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="B323">
         <v>147553.79213751762</v>
@@ -5309,8 +5219,8 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="7" t="s">
-        <v>339</v>
+      <c r="A324" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="B324">
         <v>150012.10060755161</v>
@@ -5320,8 +5230,8 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="7" t="s">
-        <v>340</v>
+      <c r="A325" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="B325">
         <v>70478.893612933985</v>
@@ -5331,8 +5241,8 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="7" t="s">
-        <v>341</v>
+      <c r="A326" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="B326">
         <v>147822.87691773815</v>
@@ -5342,8 +5252,8 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="7" t="s">
-        <v>342</v>
+      <c r="A327" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="B327">
         <v>164430.43722333829</v>
@@ -5353,8 +5263,8 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="7" t="s">
-        <v>343</v>
+      <c r="A328" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="B328">
         <v>158582.88525359641</v>
@@ -5364,8 +5274,8 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="7" t="s">
-        <v>344</v>
+      <c r="A329" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="B329">
         <v>214529.65130904637</v>
@@ -5375,8 +5285,8 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="7" t="s">
-        <v>345</v>
+      <c r="A330" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="B330">
         <v>193518.74082246894</v>
@@ -5386,8 +5296,8 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="7" t="s">
-        <v>346</v>
+      <c r="A331" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="B331">
         <v>180346.34953191227</v>
@@ -5397,8 +5307,8 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="7" t="s">
-        <v>347</v>
+      <c r="A332" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="B332">
         <v>148266.42117378337</v>
@@ -5408,8 +5318,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="7" t="s">
-        <v>348</v>
+      <c r="A333" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="B333">
         <v>153640.82987293316</v>
@@ -5419,8 +5329,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="7" t="s">
-        <v>349</v>
+      <c r="A334" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="B334">
         <v>141854.03280344114</v>
@@ -5430,8 +5340,8 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="7" t="s">
-        <v>350</v>
+      <c r="A335" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="B335">
         <v>149865.94188400081</v>
@@ -5441,8 +5351,8 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="7" t="s">
-        <v>351</v>
+      <c r="A336" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="B336">
         <v>150026.42716535137</v>
@@ -5452,8 +5362,8 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="7" t="s">
-        <v>352</v>
+      <c r="A337" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="B337">
         <v>138488.91828116955</v>
@@ -5463,8 +5373,8 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="7" t="s">
-        <v>353</v>
+      <c r="A338" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="B338">
         <v>174534.9143069257</v>
@@ -5474,8 +5384,8 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="7" t="s">
-        <v>354</v>
+      <c r="A339" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="B339">
         <v>225984.45969176473</v>
@@ -5485,8 +5395,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="7" t="s">
-        <v>355</v>
+      <c r="A340" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="B340">
         <v>171209.61511014283</v>
@@ -5496,8 +5406,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="7" t="s">
-        <v>356</v>
+      <c r="A341" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="B341">
         <v>168627.95138567057</v>
@@ -5507,8 +5417,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="7" t="s">
-        <v>357</v>
+      <c r="A342" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="B342">
         <v>132172.20311725896</v>
@@ -5518,8 +5428,8 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="7" t="s">
-        <v>358</v>
+      <c r="A343" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="B343">
         <v>166624.0205482904</v>
@@ -5529,8 +5439,8 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="7" t="s">
-        <v>359</v>
+      <c r="A344" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="B344">
         <v>137630.29763660731</v>
@@ -5540,8 +5450,8 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="7" t="s">
-        <v>360</v>
+      <c r="A345" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="B345">
         <v>160754.64434404369</v>
@@ -5551,8 +5461,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="7" t="s">
-        <v>361</v>
+      <c r="A346" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="B346">
         <v>253321.66920197156</v>
@@ -5562,8 +5472,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="7" t="s">
-        <v>362</v>
+      <c r="A347" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="B347">
         <v>167605.41488140955</v>
@@ -5573,8 +5483,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="7" t="s">
-        <v>363</v>
+      <c r="A348" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="B348">
         <v>239713.42103330151</v>
@@ -5584,8 +5494,8 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="7" t="s">
-        <v>364</v>
+      <c r="A349" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="B349">
         <v>246615.38677556848</v>
@@ -5595,8 +5505,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="7" t="s">
-        <v>365</v>
+      <c r="A350" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="B350">
         <v>211051.95916201809</v>
@@ -5606,8 +5516,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="7" t="s">
-        <v>366</v>
+      <c r="A351" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="B351">
         <v>249194.91441709112</v>
@@ -5617,8 +5527,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="7" t="s">
-        <v>367</v>
+      <c r="A352" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="B352">
         <v>254700.17462678626</v>
@@ -5628,8 +5538,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="7" t="s">
-        <v>368</v>
+      <c r="A353" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="B353">
         <v>162527.06350154479</v>
@@ -5639,8 +5549,8 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="7" t="s">
-        <v>369</v>
+      <c r="A354" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="B354">
         <v>56071.391515825249</v>
@@ -5650,8 +5560,8 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="7" t="s">
-        <v>370</v>
+      <c r="A355" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="B355">
         <v>265594.8579347576</v>
@@ -5661,8 +5571,8 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="7" t="s">
-        <v>371</v>
+      <c r="A356" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="B356">
         <v>93519.237784156197</v>
@@ -5672,8 +5582,8 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="7" t="s">
-        <v>372</v>
+      <c r="A357" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="B357">
         <v>114305.06415653507</v>
@@ -5683,8 +5593,8 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="7" t="s">
-        <v>373</v>
+      <c r="A358" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="B358">
         <v>146030.3352219252</v>
@@ -5694,8 +5604,8 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="7" t="s">
-        <v>375</v>
+      <c r="A359" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="B359">
         <v>210065.03172282418</v>
@@ -5705,8 +5615,8 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="7" t="s">
-        <v>376</v>
+      <c r="A360" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="B360">
         <v>211726.81493463041</v>
@@ -5716,8 +5626,8 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="7" t="s">
-        <v>377</v>
+      <c r="A361" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="B361">
         <v>192230.58352031338</v>
@@ -5727,8 +5637,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="7" t="s">
-        <v>378</v>
+      <c r="A362" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="B362">
         <v>190879.95651779219</v>
@@ -5738,8 +5648,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="7" t="s">
-        <v>379</v>
+      <c r="A363" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="B363">
         <v>192230.58352031338</v>
@@ -5749,8 +5659,8 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="7" t="s">
-        <v>380</v>
+      <c r="A364" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="B364">
         <v>184330.89353033714</v>
@@ -5760,8 +5670,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="7" t="s">
-        <v>381</v>
+      <c r="A365" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="B365">
         <v>218929.65588347733</v>
@@ -5771,8 +5681,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="7" t="s">
-        <v>382</v>
+      <c r="A366" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="B366">
         <v>156669.4607380121</v>
@@ -5782,8 +5692,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="7" t="s">
-        <v>383</v>
+      <c r="A367" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="B367">
         <v>184483.28202739559</v>
@@ -5793,8 +5703,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="7" t="s">
-        <v>384</v>
+      <c r="A368" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="B368">
         <v>191004.77607970519</v>
@@ -5804,8 +5714,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="7" t="s">
-        <v>385</v>
+      <c r="A369" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="B369">
         <v>156669.4607380121</v>
@@ -5815,8 +5725,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="7" t="s">
-        <v>386</v>
+      <c r="A370" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="B370">
         <v>64635.268768999667</v>
@@ -5826,8 +5736,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="7" t="s">
-        <v>387</v>
+      <c r="A371" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="B371">
         <v>176646.26018642599</v>
@@ -5837,8 +5747,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="7" t="s">
-        <v>388</v>
+      <c r="A372" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="B372">
         <v>233131.74237659317</v>
@@ -5848,8 +5758,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="7" t="s">
-        <v>389</v>
+      <c r="A373" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="B373">
         <v>76247.54316583238</v>
@@ -5859,8 +5769,8 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="7" t="s">
-        <v>390</v>
+      <c r="A374" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="B374">
         <v>64635.268768999667</v>
@@ -5870,8 +5780,8 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="7" t="s">
-        <v>391</v>
+      <c r="A375" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B375">
         <v>194617.10290398344</v>
@@ -5881,8 +5791,8 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="7" t="s">
-        <v>392</v>
+      <c r="A376" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B376">
         <v>194617.10290398344</v>
@@ -5892,8 +5802,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="7" t="s">
-        <v>393</v>
+      <c r="A377" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="B377">
         <v>66040.62765278919</v>
@@ -5903,8 +5813,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="7" t="s">
-        <v>394</v>
+      <c r="A378" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="B378">
         <v>119756.71577017927</v>
@@ -5914,8 +5824,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="7" t="s">
-        <v>395</v>
+      <c r="A379" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="B379">
         <v>185033.08236171637</v>
@@ -5925,8 +5835,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="7" t="s">
-        <v>396</v>
+      <c r="A380" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="B380">
         <v>153350.92097992668</v>
@@ -5936,8 +5846,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="7" t="s">
-        <v>397</v>
+      <c r="A381" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="B381">
         <v>234791.34590793872</v>
@@ -5947,8 +5857,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="7" t="s">
-        <v>398</v>
+      <c r="A382" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="B382">
         <v>194469.15718595299</v>
@@ -5958,8 +5868,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="7" t="s">
-        <v>399</v>
+      <c r="A383" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="B383">
         <v>228612.90152308185</v>
@@ -5969,8 +5879,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="7" t="s">
-        <v>400</v>
+      <c r="A384" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="B384">
         <v>204218.66971796501</v>
@@ -5980,8 +5890,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="7" t="s">
-        <v>401</v>
+      <c r="A385" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="B385">
         <v>153350.92097992668</v>
@@ -5991,8 +5901,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="7" t="s">
-        <v>402</v>
+      <c r="A386" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="B386">
         <v>202560.2566780145</v>
@@ -6002,8 +5912,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="7" t="s">
-        <v>403</v>
+      <c r="A387" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="B387">
         <v>187310.83586857235</v>
@@ -6013,8 +5923,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="7" t="s">
-        <v>404</v>
+      <c r="A388" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="B388">
         <v>180888.98842913637</v>
@@ -6024,8 +5934,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="7" t="s">
-        <v>405</v>
+      <c r="A389" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="B389">
         <v>198917.18547389828</v>
@@ -6035,8 +5945,8 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="7" t="s">
-        <v>406</v>
+      <c r="A390" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="B390">
         <v>222197.40751272874</v>
@@ -6046,8 +5956,8 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="7" t="s">
-        <v>408</v>
+      <c r="A391" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="B391">
         <v>153350.92097992668</v>
@@ -6057,8 +5967,8 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="7" t="s">
-        <v>409</v>
+      <c r="A392" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="B392">
         <v>153350.92097992668</v>
@@ -6068,8 +5978,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="7" t="s">
-        <v>410</v>
+      <c r="A393" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="B393">
         <v>149600.42321488447</v>
@@ -6079,8 +5989,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="7" t="s">
-        <v>411</v>
+      <c r="A394" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B394">
         <v>149600.42321488447</v>
@@ -6090,8 +6000,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="7" t="s">
-        <v>412</v>
+      <c r="A395" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="B395">
         <v>198389.92381993463</v>
@@ -6101,8 +6011,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="7" t="s">
-        <v>413</v>
+      <c r="A396" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B396">
         <v>221449.81956797894</v>
@@ -6112,8 +6022,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="7" t="s">
-        <v>414</v>
+      <c r="A397" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B397">
         <v>226864.62546483401</v>
@@ -6123,8 +6033,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="7" t="s">
-        <v>415</v>
+      <c r="A398" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="B398">
         <v>72339.318975709029</v>
@@ -6134,8 +6044,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="7" t="s">
-        <v>416</v>
+      <c r="A399" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="B399">
         <v>105485.62600642636</v>
@@ -6145,8 +6055,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="7" t="s">
-        <v>417</v>
+      <c r="A400" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B400">
         <v>104757.94458008943</v>
@@ -6156,8 +6066,8 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="7" t="s">
-        <v>418</v>
+      <c r="A401" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="B401">
         <v>64635.268768999667</v>
@@ -6167,8 +6077,8 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="7" t="s">
-        <v>419</v>
+      <c r="A402" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="B402">
         <v>251534.53543029173</v>
@@ -6178,8 +6088,8 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="7" t="s">
-        <v>420</v>
+      <c r="A403" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="B403">
         <v>170615.94092867716</v>
@@ -6189,8 +6099,8 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="7" t="s">
-        <v>421</v>
+      <c r="A404" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="B404">
         <v>64635.268768999667</v>
@@ -6200,8 +6110,8 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="7" t="s">
-        <v>422</v>
+      <c r="A405" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="B405">
         <v>115885.86603180323</v>
@@ -6211,8 +6121,8 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="7" t="s">
-        <v>423</v>
+      <c r="A406" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="B406">
         <v>153350.92097992668</v>
@@ -6222,8 +6132,8 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="7" t="s">
-        <v>424</v>
+      <c r="A407" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="B407">
         <v>153350.92097992668</v>
@@ -6233,8 +6143,8 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="7" t="s">
-        <v>425</v>
+      <c r="A408" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="B408">
         <v>153350.92097992668</v>
@@ -6244,8 +6154,8 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="7" t="s">
-        <v>426</v>
+      <c r="A409" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="B409">
         <v>176646.26018642599</v>
@@ -6255,8 +6165,8 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="7" t="s">
-        <v>428</v>
+      <c r="A410" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="B410">
         <v>85453.924112670124</v>
@@ -6266,8 +6176,8 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="7" t="s">
-        <v>429</v>
+      <c r="A411" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B411">
         <v>165633.46230691631</v>
@@ -6277,8 +6187,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="7" t="s">
-        <v>430</v>
+      <c r="A412" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="B412">
         <v>156669.4607380121</v>
@@ -6288,8 +6198,8 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="7" t="s">
-        <v>431</v>
+      <c r="A413" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="B413">
         <v>267911.94501880504</v>
@@ -6299,8 +6209,8 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="7" t="s">
-        <v>432</v>
+      <c r="A414" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="B414">
         <v>187310.83586857235</v>
@@ -6310,8 +6220,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="7" t="s">
-        <v>433</v>
+      <c r="A415" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="B415">
         <v>165017.38030243121</v>
@@ -6321,8 +6231,8 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="7" t="s">
-        <v>434</v>
+      <c r="A416" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="B416">
         <v>64635.268768999667</v>
@@ -6332,8 +6242,8 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="7" t="s">
-        <v>435</v>
+      <c r="A417" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="B417">
         <v>187310.83586857235</v>
@@ -6343,8 +6253,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="7" t="s">
-        <v>436</v>
+      <c r="A418" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="B418">
         <v>187310.83586857235</v>
@@ -6354,8 +6264,8 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="7" t="s">
-        <v>437</v>
+      <c r="A419" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="B419">
         <v>156669.4607380121</v>
@@ -6365,8 +6275,8 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="7" t="s">
-        <v>438</v>
+      <c r="A420" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="B420">
         <v>207328.11096291748</v>
@@ -6376,8 +6286,8 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="7" t="s">
-        <v>439</v>
+      <c r="A421" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="B421">
         <v>204218.66971796501</v>
@@ -6387,8 +6297,8 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="7" t="s">
-        <v>440</v>
+      <c r="A422" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="B422">
         <v>87461.18692968355</v>
@@ -6398,8 +6308,8 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="7" t="s">
-        <v>441</v>
+      <c r="A423" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="B423">
         <v>157236.39019691691</v>
@@ -6409,8 +6319,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="7" t="s">
-        <v>442</v>
+      <c r="A424" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="B424">
         <v>176646.26018642599</v>
@@ -6420,8 +6330,8 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="7" t="s">
-        <v>443</v>
+      <c r="A425" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="B425">
         <v>64635.268768999667</v>
@@ -6431,8 +6341,8 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="7" t="s">
-        <v>444</v>
+      <c r="A426" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="B426">
         <v>202054.56404788385</v>
@@ -6442,8 +6352,8 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="7" t="s">
-        <v>445</v>
+      <c r="A427" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="B427">
         <v>113168.2358607154</v>
@@ -6453,8 +6363,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="7" t="s">
-        <v>446</v>
+      <c r="A428" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="B428">
         <v>66040.62765278919</v>
@@ -6464,8 +6374,8 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="7" t="s">
-        <v>447</v>
+      <c r="A429" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="B429">
         <v>153350.92097992668</v>
@@ -6475,8 +6385,8 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="7" t="s">
-        <v>448</v>
+      <c r="A430" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="B430">
         <v>153350.92097992668</v>
@@ -6486,8 +6396,8 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="7" t="s">
-        <v>449</v>
+      <c r="A431" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="B431">
         <v>194617.10290398344</v>
@@ -6497,8 +6407,8 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="7" t="s">
-        <v>450</v>
+      <c r="A432" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="B432">
         <v>149600.42321488447</v>
@@ -6508,8 +6418,8 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="7" t="s">
-        <v>451</v>
+      <c r="A433" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="B433">
         <v>153350.92097992668</v>
@@ -6519,8 +6429,8 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="7" t="s">
-        <v>452</v>
+      <c r="A434" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="B434">
         <v>156669.4607380121</v>
@@ -6530,8 +6440,8 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="7" t="s">
-        <v>453</v>
+      <c r="A435" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="B435">
         <v>64635.268768999667</v>
@@ -6541,8 +6451,8 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="7" t="s">
-        <v>454</v>
+      <c r="A436" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="B436">
         <v>156669.4607380121</v>
@@ -6552,8 +6462,8 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="7" t="s">
-        <v>455</v>
+      <c r="A437" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="B437">
         <v>155025.13736452055</v>
@@ -6563,8 +6473,8 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="7" t="s">
-        <v>458</v>
+      <c r="A438" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B438">
         <v>64635.268768999667</v>
@@ -6574,8 +6484,8 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="7" t="s">
-        <v>459</v>
+      <c r="A439" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="B439">
         <v>235667.62680279854</v>
@@ -6585,8 +6495,8 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="7" t="s">
-        <v>460</v>
+      <c r="A440" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="B440">
         <v>94218.846671380161</v>
@@ -6596,8 +6506,8 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="7" t="s">
-        <v>462</v>
+      <c r="A441" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="B441">
         <v>164523.53044467137</v>
@@ -6607,8 +6517,8 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="7" t="s">
-        <v>463</v>
+      <c r="A442" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="B442">
         <v>173618.22167312854</v>
@@ -6618,8 +6528,8 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="7" t="s">
-        <v>464</v>
+      <c r="A443" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="B443">
         <v>153350.92097992668</v>
@@ -6629,8 +6539,8 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="7" t="s">
-        <v>465</v>
+      <c r="A444" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="B444">
         <v>99248.858600816267</v>
@@ -6640,8 +6550,8 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="7" t="s">
-        <v>466</v>
+      <c r="A445" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="B445">
         <v>194617.10290398344</v>
@@ -6651,8 +6561,8 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="7" t="s">
-        <v>467</v>
+      <c r="A446" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="B446">
         <v>87916.983453714987</v>
@@ -6662,8 +6572,8 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="7" t="s">
-        <v>468</v>
+      <c r="A447" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="B447">
         <v>194617.10290398344</v>
@@ -6673,8 +6583,8 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="7" t="s">
-        <v>469</v>
+      <c r="A448" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="B448">
         <v>64635.268768999667</v>
@@ -6684,8 +6594,8 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="7" t="s">
-        <v>470</v>
+      <c r="A449" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="B449">
         <v>64635.268768999667</v>
@@ -6695,8 +6605,8 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="7" t="s">
-        <v>471</v>
+      <c r="A450" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="B450">
         <v>113168.2358607154</v>
@@ -6706,8 +6616,8 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="7" t="s">
-        <v>472</v>
+      <c r="A451" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="B451">
         <v>156214.51933285675</v>
@@ -6717,8 +6627,8 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="7" t="s">
-        <v>473</v>
+      <c r="A452" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="B452">
         <v>198917.18547389828</v>
@@ -6728,8 +6638,8 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="7" t="s">
-        <v>474</v>
+      <c r="A453" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="B453">
         <v>251534.53543029173</v>
@@ -6739,8 +6649,8 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="7" t="s">
-        <v>475</v>
+      <c r="A454" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="B454">
         <v>194617.10290398344</v>
@@ -6750,8 +6660,8 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="7" t="s">
-        <v>476</v>
+      <c r="A455" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="B455">
         <v>176646.26018642599</v>
@@ -6761,8 +6671,8 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="7" t="s">
-        <v>477</v>
+      <c r="A456" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="B456">
         <v>194617.10290398344</v>
@@ -6772,8 +6682,8 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="7" t="s">
-        <v>478</v>
+      <c r="A457" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="B457">
         <v>149600.42321488447</v>
@@ -6783,8 +6693,8 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="7" t="s">
-        <v>479</v>
+      <c r="A458" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="B458">
         <v>131160.25577959785</v>
@@ -6794,8 +6704,8 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="7" t="s">
-        <v>480</v>
+      <c r="A459" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="B459">
         <v>160500.47003921086</v>
@@ -6805,8 +6715,8 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="7" t="s">
-        <v>481</v>
+      <c r="A460" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="B460">
         <v>244859.8301367386</v>
@@ -6816,8 +6726,8 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="7" t="s">
-        <v>482</v>
+      <c r="A461" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="B461">
         <v>173437.7511362854</v>
@@ -6827,8 +6737,8 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="7" t="s">
-        <v>483</v>
+      <c r="A462" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="B462">
         <v>146229.75768529618</v>
@@ -6838,8 +6748,8 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="7" t="s">
-        <v>484</v>
+      <c r="A463" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="B463">
         <v>150242.61299235813</v>
@@ -6849,8 +6759,8 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="7" t="s">
-        <v>485</v>
+      <c r="A464" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="B464">
         <v>210627.47561252621</v>
@@ -6860,8 +6770,8 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="7" t="s">
-        <v>486</v>
+      <c r="A465" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="B465">
         <v>146229.75768529618</v>
@@ -6871,8 +6781,8 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="7" t="s">
-        <v>487</v>
+      <c r="A466" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="B466">
         <v>145542.84731651307</v>
@@ -6882,8 +6792,8 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="7" t="s">
-        <v>488</v>
+      <c r="A467" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="B467">
         <v>146498.42839597134</v>
@@ -6893,8 +6803,8 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="7" t="s">
-        <v>489</v>
+      <c r="A468" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="B468">
         <v>128788.20450634682</v>
@@ -6904,8 +6814,8 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="7" t="s">
-        <v>490</v>
+      <c r="A469" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="B469">
         <v>163484.60414464097</v>
@@ -6915,8 +6825,8 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="7" t="s">
-        <v>492</v>
+      <c r="A470" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="B470">
         <v>161611.03789285509</v>
@@ -6926,8 +6836,8 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="7" t="s">
-        <v>493</v>
+      <c r="A471" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="B471">
         <v>200584.97539832708</v>
@@ -6937,8 +6847,8 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="7" t="s">
-        <v>494</v>
+      <c r="A472" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="B472">
         <v>201271.63180762209</v>
@@ -6948,8 +6858,8 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="7" t="s">
-        <v>495</v>
+      <c r="A473" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="B473">
         <v>228125.78563218768</v>
@@ -6959,8 +6869,8 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="7" t="s">
-        <v>496</v>
+      <c r="A474" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="B474">
         <v>213647.69401151894</v>
@@ -6970,8 +6880,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="7" t="s">
-        <v>497</v>
+      <c r="A475" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="B475">
         <v>133477.84883408522</v>
@@ -6981,8 +6891,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="7" t="s">
-        <v>498</v>
+      <c r="A476" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="B476">
         <v>231377.68682897839</v>
@@ -6992,8 +6902,8 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="7" t="s">
-        <v>499</v>
+      <c r="A477" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="B477">
         <v>202749.22938669249</v>
@@ -7003,8 +6913,8 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="7" t="s">
-        <v>500</v>
+      <c r="A478" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="B478">
         <v>132119.51426370442</v>
@@ -7014,8 +6924,8 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="7" t="s">
-        <v>501</v>
+      <c r="A479" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="B479">
         <v>153177.35847845947</v>
@@ -7025,8 +6935,8 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="7" t="s">
-        <v>502</v>
+      <c r="A480" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="B480">
         <v>132119.51426370442</v>
@@ -7036,8 +6946,8 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="7" t="s">
-        <v>503</v>
+      <c r="A481" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="B481">
         <v>132135.86111613427</v>
@@ -7047,8 +6957,8 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="7" t="s">
-        <v>504</v>
+      <c r="A482" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="B482">
         <v>155436.28780641497</v>
@@ -7058,8 +6968,8 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="7" t="s">
-        <v>505</v>
+      <c r="A483" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="B483">
         <v>153343.00640551225</v>
@@ -7069,8 +6979,8 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="7" t="s">
-        <v>506</v>
+      <c r="A484" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="B484">
         <v>196131.8531536152</v>
@@ -7080,8 +6990,8 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="7" t="s">
-        <v>507</v>
+      <c r="A485" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="B485">
         <v>131583.79097934856</v>
@@ -7091,8 +7001,8 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="7" t="s">
-        <v>508</v>
+      <c r="A486" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="B486">
         <v>166743.38000865729</v>
@@ -7102,8 +7012,8 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="7" t="s">
-        <v>509</v>
+      <c r="A487" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="B487">
         <v>163149.19885785136</v>
@@ -7113,8 +7023,8 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="7" t="s">
-        <v>510</v>
+      <c r="A488" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="B488">
         <v>144878.3631743564</v>
@@ -7124,8 +7034,8 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="7" t="s">
-        <v>511</v>
+      <c r="A489" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="B489">
         <v>232771.09706798923</v>
@@ -7135,8 +7045,8 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="7" t="s">
-        <v>512</v>
+      <c r="A490" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="B490">
         <v>167312.0258462413</v>
@@ -7146,8 +7056,8 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="7" t="s">
-        <v>514</v>
+      <c r="A491" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="B491">
         <v>156731.00426675405</v>
@@ -7157,8 +7067,8 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="7" t="s">
-        <v>515</v>
+      <c r="A492" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="B492">
         <v>214604.49102606458</v>
@@ -7168,8 +7078,8 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="7" t="s">
-        <v>516</v>
+      <c r="A493" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="B493">
         <v>196440.78197396416</v>
@@ -7179,8 +7089,8 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="7" t="s">
-        <v>517</v>
+      <c r="A494" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="B494">
         <v>210121.86131208244</v>
@@ -7190,8 +7100,8 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="7" t="s">
-        <v>518</v>
+      <c r="A495" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="B495">
         <v>141308.53545223345</v>
@@ -7201,8 +7111,8 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="7" t="s">
-        <v>519</v>
+      <c r="A496" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="B496">
         <v>166103.02406516293</v>
@@ -7212,8 +7122,8 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="7" t="s">
-        <v>520</v>
+      <c r="A497" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="B497">
         <v>169403.3314025687</v>
@@ -7223,8 +7133,8 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="7" t="s">
-        <v>521</v>
+      <c r="A498" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="B498">
         <v>170253.07562054344</v>
@@ -7234,8 +7144,8 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="7" t="s">
-        <v>522</v>
+      <c r="A499" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="B499">
         <v>151469.27375132401</v>
@@ -7245,8 +7155,8 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="7" t="s">
-        <v>523</v>
+      <c r="A500" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="B500">
         <v>72148.823708028212</v>
@@ -7256,8 +7166,8 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="7" t="s">
-        <v>524</v>
+      <c r="A501" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="B501">
         <v>124701.77397569323</v>
@@ -7267,8 +7177,8 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="7" t="s">
-        <v>525</v>
+      <c r="A502" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="B502">
         <v>184089.35836469047</v>
@@ -7278,8 +7188,8 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="7" t="s">
-        <v>526</v>
+      <c r="A503" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="B503">
         <v>124701.77397569323</v>
@@ -7289,8 +7199,8 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="7" t="s">
-        <v>527</v>
+      <c r="A504" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="B504">
         <v>170973.63911233016</v>
@@ -7300,8 +7210,8 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="7" t="s">
-        <v>528</v>
+      <c r="A505" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="B505">
         <v>153088.98560545756</v>
@@ -7311,8 +7221,8 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="7" t="s">
-        <v>529</v>
+      <c r="A506" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="B506">
         <v>226642.09785247577</v>
@@ -7322,8 +7232,8 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="7" t="s">
-        <v>530</v>
+      <c r="A507" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="B507">
         <v>148261.95348778431</v>
@@ -7333,8 +7243,8 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="7" t="s">
-        <v>531</v>
+      <c r="A508" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="B508">
         <v>109537.49863380885</v>
@@ -7344,8 +7254,8 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="7" t="s">
-        <v>532</v>
+      <c r="A509" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="B509">
         <v>149454.65507611321</v>
@@ -7355,8 +7265,8 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="7" t="s">
-        <v>533</v>
+      <c r="A510" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="B510">
         <v>181893.77237919508</v>
@@ -7366,8 +7276,8 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="7" t="s">
-        <v>534</v>
+      <c r="A511" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="B511">
         <v>220524.59507695551</v>
@@ -7377,8 +7287,8 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="7" t="s">
-        <v>535</v>
+      <c r="A512" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="B512">
         <v>139591.15565262942</v>
@@ -7388,8 +7298,8 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="7" t="s">
-        <v>536</v>
+      <c r="A513" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="B513">
         <v>158165.78717522789</v>
@@ -7399,8 +7309,8 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="7" t="s">
-        <v>537</v>
+      <c r="A514" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="B514">
         <v>146500.40996607646</v>
@@ -7410,8 +7320,8 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="7" t="s">
-        <v>538</v>
+      <c r="A515" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="B515">
         <v>161471.23079627281</v>
@@ -7421,8 +7331,8 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="7" t="s">
-        <v>539</v>
+      <c r="A516" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="B516">
         <v>157000.16854251677</v>
@@ -7432,8 +7342,8 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="7" t="s">
-        <v>540</v>
+      <c r="A517" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="B517">
         <v>206371.7875659065</v>
@@ -7443,8 +7353,8 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="7" t="s">
-        <v>541</v>
+      <c r="A518" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="B518">
         <v>163981.52903786278</v>
@@ -7454,8 +7364,8 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="7" t="s">
-        <v>542</v>
+      <c r="A519" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="B519">
         <v>166095.48659207861</v>
@@ -7465,8 +7375,8 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="7" t="s">
-        <v>543</v>
+      <c r="A520" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="B520">
         <v>163708.18989533841</v>
@@ -7476,8 +7386,8 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="7" t="s">
-        <v>544</v>
+      <c r="A521" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="B521">
         <v>183634.87580602377</v>
@@ -7487,8 +7397,8 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="7" t="s">
-        <v>545</v>
+      <c r="A522" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="B522">
         <v>175427.23909660731</v>
@@ -7498,8 +7408,8 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="7" t="s">
-        <v>546</v>
+      <c r="A523" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="B523">
         <v>176479.36022123866</v>
@@ -7509,8 +7419,8 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="7" t="s">
-        <v>547</v>
+      <c r="A524" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="B524">
         <v>129423.03747817855</v>
@@ -7520,8 +7430,8 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="7" t="s">
-        <v>548</v>
+      <c r="A525" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="B525">
         <v>147315.15380459718</v>
@@ -7531,8 +7441,8 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="7" t="s">
-        <v>549</v>
+      <c r="A526" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="B526">
         <v>156286.24732753809</v>
@@ -7542,8 +7452,8 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="7" t="s">
-        <v>550</v>
+      <c r="A527" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="B527">
         <v>143219.11323532771</v>
@@ -7553,8 +7463,8 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="7" t="s">
-        <v>551</v>
+      <c r="A528" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="B528">
         <v>201522.90502422905</v>
@@ -7564,8 +7474,8 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="7" t="s">
-        <v>554</v>
+      <c r="A529" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="B529">
         <v>202810.33113827329</v>
@@ -7575,299 +7485,13 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="7" t="s">
-        <v>555</v>
+      <c r="A530" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="B530">
         <v>92945.687362785902</v>
       </c>
       <c r="C530">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B531">
-        <v>1</v>
-      </c>
-      <c r="C531">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B532">
-        <v>1</v>
-      </c>
-      <c r="C532">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B533">
-        <v>1</v>
-      </c>
-      <c r="C533">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B534">
-        <v>1</v>
-      </c>
-      <c r="C534">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B535">
-        <v>1</v>
-      </c>
-      <c r="C535">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B536">
-        <v>1</v>
-      </c>
-      <c r="C536">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B537">
-        <v>1</v>
-      </c>
-      <c r="C537">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B538">
-        <v>1</v>
-      </c>
-      <c r="C538">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B539">
-        <v>1</v>
-      </c>
-      <c r="C539">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B540">
-        <v>1</v>
-      </c>
-      <c r="C540">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B541">
-        <v>1</v>
-      </c>
-      <c r="C541">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B542">
-        <v>1</v>
-      </c>
-      <c r="C542">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B543">
-        <v>1</v>
-      </c>
-      <c r="C543">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B544">
-        <v>1</v>
-      </c>
-      <c r="C544">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B545">
-        <v>1</v>
-      </c>
-      <c r="C545">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B546">
-        <v>1</v>
-      </c>
-      <c r="C546">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B547">
-        <v>1</v>
-      </c>
-      <c r="C547">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B548">
-        <v>1</v>
-      </c>
-      <c r="C548">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B549">
-        <v>1</v>
-      </c>
-      <c r="C549">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B550">
-        <v>1</v>
-      </c>
-      <c r="C550">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B551">
-        <v>1</v>
-      </c>
-      <c r="C551">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B552">
-        <v>1</v>
-      </c>
-      <c r="C552">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B553">
-        <v>1</v>
-      </c>
-      <c r="C553">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B554">
-        <v>1</v>
-      </c>
-      <c r="C554">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B555">
-        <v>1</v>
-      </c>
-      <c r="C555">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B556">
-        <v>1</v>
-      </c>
-      <c r="C556">
         <v>1</v>
       </c>
     </row>

--- a/outputs-HGR-r202/test-p__Firmicutes_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Firmicutes_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="539">
   <si>
     <t>Row</t>
   </si>
@@ -214,6 +214,9 @@
     <t>even_MAG-GUT15880.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT16567.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17288.fa</t>
   </si>
   <si>
@@ -334,6 +337,9 @@
     <t>even_MAG-GUT2306.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT23295.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT2366.fa</t>
   </si>
   <si>
@@ -391,12 +397,21 @@
     <t>even_MAG-GUT3323.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33836.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34245.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT3427.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT3435.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT34540.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT3474.fa</t>
   </si>
   <si>
@@ -415,6 +430,9 @@
     <t>even_MAG-GUT3493.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT34945.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT3499.fa</t>
   </si>
   <si>
@@ -568,6 +586,9 @@
     <t>even_MAG-GUT45923.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT46037.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT4616.fa</t>
   </si>
   <si>
@@ -877,6 +898,9 @@
     <t>even_MAG-GUT59278.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT59590.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT6.fa</t>
   </si>
   <si>
@@ -931,6 +955,9 @@
     <t>even_MAG-GUT63569.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT65341.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT65576.fa</t>
   </si>
   <si>
@@ -1087,6 +1114,9 @@
     <t>even_MAG-GUT77576.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80232.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT83501.fa</t>
   </si>
   <si>
@@ -1309,6 +1339,9 @@
     <t>even_MAG-GUT90636.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90671.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90682.fa</t>
   </si>
   <si>
@@ -1316,6 +1349,9 @@
   </si>
   <si>
     <t>even_MAG-GUT90730.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90775.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT90777.fa</t>
@@ -1642,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C525"/>
+  <dimension ref="A1:C537"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -1655,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2">
@@ -2381,7 +2417,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>222208.81951874038</v>
+        <v>97515.167203660909</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2392,7 +2428,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>170327.1398967733</v>
+        <v>222208.81951874038</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2403,7 +2439,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>154854.5306451252</v>
+        <v>170327.1398967733</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2414,7 +2450,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>172338.95774340647</v>
+        <v>154854.5306451252</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2425,7 +2461,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>245649.41709691228</v>
+        <v>172338.95774340647</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2436,7 +2472,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>209501.29015844263</v>
+        <v>245649.41709691228</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2447,7 +2483,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>155075.24693124639</v>
+        <v>209501.29015844263</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2458,7 +2494,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>180879.11735578688</v>
+        <v>155075.24693124639</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2469,7 +2505,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>140302.24014945072</v>
+        <v>180879.11735578688</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2480,7 +2516,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>159392.96795963866</v>
+        <v>140302.24014945072</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2491,7 +2527,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>173793.60499523804</v>
+        <v>159392.96795963866</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2502,7 +2538,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>173751.23137356565</v>
+        <v>173793.60499523804</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2513,7 +2549,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>174321.87560976887</v>
+        <v>173751.23137356565</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2524,7 +2560,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>170889.61637996126</v>
+        <v>174321.87560976887</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2535,7 +2571,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>157805.26070181411</v>
+        <v>170889.61637996126</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2546,7 +2582,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>174321.87560976887</v>
+        <v>157805.26070181411</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2557,7 +2593,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>222689.63105944573</v>
+        <v>174321.87560976887</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2568,7 +2604,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>153038.97270848358</v>
+        <v>222689.63105944573</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2579,7 +2615,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>164404.68695180395</v>
+        <v>153038.97270848358</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2590,7 +2626,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>164095.50691534346</v>
+        <v>164404.68695180395</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2601,7 +2637,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>142261.49533755681</v>
+        <v>164095.50691534346</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2612,7 +2648,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>148374.72928937923</v>
+        <v>142261.49533755681</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2623,7 +2659,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>150959.32164999555</v>
+        <v>148374.72928937923</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -2634,7 +2670,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>174321.87560976887</v>
+        <v>150959.32164999555</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2645,7 +2681,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>172707.18657562422</v>
+        <v>174321.87560976887</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2656,7 +2692,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>232666.55098724377</v>
+        <v>172707.18657562422</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2667,7 +2703,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>192385.56304150919</v>
+        <v>232666.55098724377</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2678,7 +2714,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>162660.59626347449</v>
+        <v>192385.56304150919</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2689,7 +2725,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>164863.46359461098</v>
+        <v>162660.59626347449</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2700,7 +2736,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>160984.10380766666</v>
+        <v>164863.46359461098</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2711,7 +2747,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>107261.77941438118</v>
+        <v>160984.10380766666</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2722,7 +2758,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>141110.64346146144</v>
+        <v>107261.77941438118</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2733,7 +2769,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>68366.751566141174</v>
+        <v>141110.64346146144</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2744,7 +2780,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>106709.6269118924</v>
+        <v>68366.751566141174</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2755,7 +2791,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>133920.37831220793</v>
+        <v>106709.6269118924</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2766,7 +2802,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>153112.58346712153</v>
+        <v>133920.37831220793</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2777,7 +2813,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>136355.47752832063</v>
+        <v>153112.58346712153</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2788,7 +2824,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>245325.38880971581</v>
+        <v>136355.47752832063</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2799,7 +2835,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>230185.26620245154</v>
+        <v>245325.38880971581</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2810,7 +2846,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>210590.32405486252</v>
+        <v>230185.26620245154</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2821,7 +2857,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>166461.27521280537</v>
+        <v>210590.32405486252</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2832,7 +2868,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>65801.392633478477</v>
+        <v>114641.5484356509</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2843,7 +2879,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>152584.28765293365</v>
+        <v>166461.27521280537</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2854,7 +2890,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>177562.06185760445</v>
+        <v>65801.392633478477</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2865,7 +2901,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>267658.57575553894</v>
+        <v>152584.28765293365</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2876,7 +2912,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>201328.51577240459</v>
+        <v>177562.06185760445</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2887,7 +2923,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>194274.61683746459</v>
+        <v>267658.57575553894</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2898,7 +2934,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>169809.83108721228</v>
+        <v>201328.51577240459</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2909,7 +2945,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>78083.429202264917</v>
+        <v>194274.61683746459</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2920,7 +2956,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>109109.87498860269</v>
+        <v>169809.83108721228</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -2931,7 +2967,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>210698.73307952908</v>
+        <v>78083.429202264917</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2942,7 +2978,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>134493.04288655191</v>
+        <v>109109.87498860269</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -2953,7 +2989,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>205647.92392057503</v>
+        <v>210698.73307952908</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -2964,7 +3000,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>147085.38994887209</v>
+        <v>134493.04288655191</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2975,7 +3011,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>165922.9700186713</v>
+        <v>205647.92392057503</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -2986,7 +3022,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>68228.244848802162</v>
+        <v>147085.38994887209</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -2997,7 +3033,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>139186.84360392721</v>
+        <v>165922.9700186713</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3008,7 +3044,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>136586.37649510056</v>
+        <v>68228.244848802162</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3019,7 +3055,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>116448.39633415364</v>
+        <v>139186.84360392721</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3030,7 +3066,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>211868.70612247215</v>
+        <v>136586.37649510056</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3041,7 +3077,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>200284.77437523956</v>
+        <v>116448.39633415364</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3052,7 +3088,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>231405.01559002383</v>
+        <v>88924.506085262343</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3063,7 +3099,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>163510.91364675804</v>
+        <v>120232.25478520429</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3074,7 +3110,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>168922.83642740338</v>
+        <v>211868.70612247215</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3085,7 +3121,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>253737.2440540276</v>
+        <v>200284.77437523956</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3096,7 +3132,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>170748.93989996263</v>
+        <v>107574.0809890793</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3107,7 +3143,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>128839.46007502092</v>
+        <v>231405.01559002383</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3118,7 +3154,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>214404.66026628547</v>
+        <v>163510.91364675804</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -3129,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>190515.48377598537</v>
+        <v>168922.83642740338</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3140,7 +3176,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>94403.546088395204</v>
+        <v>253737.2440540276</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3151,7 +3187,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>136833.89548257602</v>
+        <v>170748.93989996263</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -3162,7 +3198,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>151190.3829049429</v>
+        <v>128839.46007502092</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3173,7 +3209,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>172845.76141064771</v>
+        <v>103964.68636864562</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3184,7 +3220,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>70592.846309047469</v>
+        <v>214404.66026628547</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3195,7 +3231,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>148517.8019534153</v>
+        <v>190515.48377598537</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3206,7 +3242,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>174442.92402725032</v>
+        <v>94403.546088395204</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3217,7 +3253,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>193218.19556646698</v>
+        <v>136833.89548257602</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3228,7 +3264,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>174759.09985493825</v>
+        <v>151190.3829049429</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3239,7 +3275,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>173962.20201864303</v>
+        <v>172845.76141064771</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3250,7 +3286,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>42504.156963112444</v>
+        <v>70592.846309047469</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3261,7 +3297,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>154808.46086951694</v>
+        <v>148517.8019534153</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3272,7 +3308,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>192826.71871846315</v>
+        <v>174442.92402725032</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3283,7 +3319,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>137466.9795114845</v>
+        <v>193218.19556646698</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3294,7 +3330,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>204529.990457912</v>
+        <v>174759.09985493825</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3305,7 +3341,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>232219.84885685515</v>
+        <v>173962.20201864303</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3316,7 +3352,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>167471.85613523767</v>
+        <v>42504.156963112444</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3327,7 +3363,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>166944.81877293857</v>
+        <v>154808.46086951694</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -3338,7 +3374,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>76013.654004766868</v>
+        <v>192826.71871846315</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -3349,7 +3385,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>140131.42006870557</v>
+        <v>137466.9795114845</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3360,7 +3396,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>159206.57010265056</v>
+        <v>204529.990457912</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -3371,7 +3407,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>131833.73908213084</v>
+        <v>232219.84885685515</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -3382,7 +3418,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>144877.63484675979</v>
+        <v>167471.85613523767</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -3393,7 +3429,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>222611.5524176402</v>
+        <v>166944.81877293857</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -3404,7 +3440,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>230939.8195531258</v>
+        <v>76013.654004766868</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -3415,7 +3451,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>158574.49389446527</v>
+        <v>140131.42006870557</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -3426,7 +3462,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>177094.03403155203</v>
+        <v>159206.57010265056</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -3437,7 +3473,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>158931.98486056383</v>
+        <v>131833.73908213084</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -3448,7 +3484,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>149898.71189118433</v>
+        <v>144877.63484675979</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -3459,7 +3495,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>175930.92963572918</v>
+        <v>222611.5524176402</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -3470,7 +3506,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>237710.94627853169</v>
+        <v>230939.8195531258</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -3481,7 +3517,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>136030.59570586722</v>
+        <v>158574.49389446527</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -3492,7 +3528,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>201090.43076167218</v>
+        <v>177094.03403155203</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -3503,7 +3539,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>175290.77759852109</v>
+        <v>158931.98486056383</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -3514,7 +3550,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>177391.33245818157</v>
+        <v>149898.71189118433</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -3525,7 +3561,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>219406.6800811805</v>
+        <v>175930.92963572918</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -3536,7 +3572,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>75567.598087613296</v>
+        <v>237710.94627853169</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -3547,7 +3583,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>151385.13017562844</v>
+        <v>136030.59570586722</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -3558,7 +3594,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>181690.59184430362</v>
+        <v>201090.43076167218</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -3569,7 +3605,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>140269.38435640297</v>
+        <v>175290.77759852109</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -3580,7 +3616,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>153901.70963815384</v>
+        <v>177391.33245818157</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -3591,7 +3627,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>201090.43076167218</v>
+        <v>219406.6800811805</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -3602,7 +3638,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>244118.12514783768</v>
+        <v>75567.598087613296</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -3613,7 +3649,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>157480.72680668035</v>
+        <v>151385.13017562844</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -3624,7 +3660,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>193691.97670824517</v>
+        <v>181690.59184430362</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -3635,7 +3671,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>148378.506346682</v>
+        <v>140269.38435640297</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -3646,7 +3682,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>127832.41948311242</v>
+        <v>153901.70963815384</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -3657,7 +3693,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>164850.73554882797</v>
+        <v>201090.43076167218</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -3668,7 +3704,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>202662.55621610189</v>
+        <v>244118.12514783768</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -3679,7 +3715,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>71523.023815330613</v>
+        <v>157480.72680668035</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -3690,7 +3726,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>145842.89543189656</v>
+        <v>193691.97670824517</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -3701,7 +3737,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>172945.54115187359</v>
+        <v>148378.506346682</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3712,7 +3748,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>142807.73539912666</v>
+        <v>127832.41948311242</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -3723,7 +3759,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>154975.85531000886</v>
+        <v>164850.73554882797</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -3734,7 +3770,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>152258.61882046502</v>
+        <v>202662.55621610189</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -3745,7 +3781,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>160606.8385876746</v>
+        <v>95532.869185847419</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -3756,7 +3792,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>195087.48966417296</v>
+        <v>71523.023815330613</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -3767,7 +3803,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>125083.25216536161</v>
+        <v>145842.89543189656</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -3778,7 +3814,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>156758.16159691275</v>
+        <v>172945.54115187359</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -3789,7 +3825,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>231173.97826546899</v>
+        <v>142807.73539912666</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -3800,7 +3836,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>198070.85525009339</v>
+        <v>154975.85531000886</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -3811,7 +3847,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>215731.90176149143</v>
+        <v>152258.61882046502</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -3822,7 +3858,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>159240.2336161655</v>
+        <v>160606.8385876746</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -3833,7 +3869,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>186208.16657834215</v>
+        <v>195087.48966417296</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -3844,7 +3880,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>185065.16545977016</v>
+        <v>125083.25216536161</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -3855,7 +3891,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>167604.64751828872</v>
+        <v>156758.16159691275</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -3866,7 +3902,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>185418.57666425122</v>
+        <v>231173.97826546899</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -3877,7 +3913,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>144558.54630900896</v>
+        <v>198070.85525009339</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -3888,7 +3924,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>148058.42480515197</v>
+        <v>215731.90176149143</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -3899,7 +3935,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>211804.71820982199</v>
+        <v>159240.2336161655</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -3910,7 +3946,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>120730.16971074075</v>
+        <v>186208.16657834215</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -3921,7 +3957,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>164944.58009907056</v>
+        <v>185065.16545977016</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -3932,7 +3968,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>163748.8744457367</v>
+        <v>167604.64751828872</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -3943,7 +3979,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>150517.90684134501</v>
+        <v>185418.57666425122</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -3954,7 +3990,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>124769.61866329245</v>
+        <v>144558.54630900896</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -3965,7 +4001,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>183395.91499453012</v>
+        <v>148058.42480515197</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -3976,7 +4012,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>146022.79598861316</v>
+        <v>211804.71820982199</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -3987,7 +4023,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>167960.16379305697</v>
+        <v>120730.16971074075</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -3998,7 +4034,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>169012.2561274817</v>
+        <v>164944.58009907056</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -4009,7 +4045,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>89682.113834295014</v>
+        <v>163748.8744457367</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -4020,7 +4056,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>166222.70357901845</v>
+        <v>150517.90684134501</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -4031,7 +4067,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>133088.11726821834</v>
+        <v>124769.61866329245</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -4042,7 +4078,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>174224.52234793559</v>
+        <v>183395.91499453012</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -4053,7 +4089,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>144157.95632948441</v>
+        <v>146022.79598861316</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -4064,7 +4100,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>176812.11540160771</v>
+        <v>167960.16379305697</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -4075,7 +4111,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>149542.54251687878</v>
+        <v>169012.2561274817</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -4086,7 +4122,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>175698.26760791062</v>
+        <v>89682.113834295014</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -4097,7 +4133,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>133898.44658557791</v>
+        <v>166222.70357901845</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -4108,7 +4144,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>174253.30826820826</v>
+        <v>133088.11726821834</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -4119,7 +4155,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>111301.12476992056</v>
+        <v>174224.52234793559</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -4130,7 +4166,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>222445.33571526152</v>
+        <v>144157.95632948441</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -4141,7 +4177,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>143764.62833494364</v>
+        <v>176812.11540160771</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -4152,7 +4188,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>184930.23062062045</v>
+        <v>149542.54251687878</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -4163,7 +4199,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>169904.51302115686</v>
+        <v>175698.26760791062</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -4174,7 +4210,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>147705.40051211062</v>
+        <v>133898.44658557791</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -4185,7 +4221,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>118406.65288855338</v>
+        <v>174253.30826820826</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -4196,7 +4232,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>203664.7699560301</v>
+        <v>111301.12476992056</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -4207,7 +4243,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>151616.49197522213</v>
+        <v>222445.33571526152</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -4218,7 +4254,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>137194.17958206125</v>
+        <v>143764.62833494364</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -4229,7 +4265,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>161700.68937291508</v>
+        <v>184930.23062062045</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -4240,7 +4276,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>165803.81634057904</v>
+        <v>169904.51302115686</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -4251,7 +4287,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>178993.28486192159</v>
+        <v>147705.40051211062</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -4262,7 +4298,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>132438.64559967749</v>
+        <v>118406.65288855338</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -4273,7 +4309,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>152702.51895040835</v>
+        <v>203664.7699560301</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -4284,7 +4320,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>105178.64292882175</v>
+        <v>151616.49197522213</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -4295,7 +4331,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>126912.0002450703</v>
+        <v>137194.17958206125</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -4306,7 +4342,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>107204.90005242323</v>
+        <v>161700.68937291508</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -4317,7 +4353,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>176428.2242375706</v>
+        <v>165803.81634057904</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -4328,7 +4364,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>107754.88922282409</v>
+        <v>178993.28486192159</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -4339,7 +4375,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>165737.09777209122</v>
+        <v>132438.64559967749</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -4350,7 +4386,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>155757.00939959288</v>
+        <v>152702.51895040835</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -4361,7 +4397,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>147353.06717537253</v>
+        <v>105178.64292882175</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -4372,7 +4408,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>155602.65263693262</v>
+        <v>126912.0002450703</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -4383,7 +4419,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>157387.12810963209</v>
+        <v>107204.90005242323</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -4394,7 +4430,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>188751.67236302598</v>
+        <v>176428.2242375706</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -4405,7 +4441,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>157387.12810963209</v>
+        <v>107754.88922282409</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -4416,7 +4452,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>149214.1303706037</v>
+        <v>165737.09777209122</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -4427,7 +4463,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>141182.49664716626</v>
+        <v>155757.00939959288</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -4438,7 +4474,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>125330.43511976379</v>
+        <v>147353.06717537253</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -4449,7 +4485,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>249636.18089430785</v>
+        <v>155602.65263693262</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -4460,7 +4496,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>126964.80003903735</v>
+        <v>157387.12810963209</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -4471,7 +4507,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>152918.89172657861</v>
+        <v>188751.67236302598</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -4482,7 +4518,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>134880.19437614569</v>
+        <v>157387.12810963209</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -4493,7 +4529,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>85533.663166140715</v>
+        <v>149214.1303706037</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -4504,7 +4540,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>159200.51914956697</v>
+        <v>141182.49664716626</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -4515,7 +4551,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>152527.67899034615</v>
+        <v>125330.43511976379</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -4526,7 +4562,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>173161.7895845054</v>
+        <v>249636.18089430785</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -4537,7 +4573,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>130017.46950915152</v>
+        <v>126964.80003903735</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -4548,7 +4584,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>112594.47008958731</v>
+        <v>152918.89172657861</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -4559,7 +4595,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>126154.94422288575</v>
+        <v>134880.19437614569</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -4570,7 +4606,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>87214.564284096225</v>
+        <v>85533.663166140715</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -4581,7 +4617,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>152671.88024027608</v>
+        <v>159200.51914956697</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -4592,7 +4628,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>141309.19643114635</v>
+        <v>152527.67899034615</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -4603,7 +4639,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>157387.12810963209</v>
+        <v>173161.7895845054</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -4614,7 +4650,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>162742.68213834387</v>
+        <v>130017.46950915152</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -4625,7 +4661,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>193110.17067118667</v>
+        <v>112594.47008958731</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -4636,7 +4672,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>123069.07815825405</v>
+        <v>126154.94422288575</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -4647,7 +4683,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>155037.94208492659</v>
+        <v>87214.564284096225</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -4658,7 +4694,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>101669.22491086849</v>
+        <v>152671.88024027608</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -4669,7 +4705,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>180627.88658068964</v>
+        <v>141309.19643114635</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -4680,7 +4716,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>137611.98115587045</v>
+        <v>157387.12810963209</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -4691,7 +4727,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>201228.87293929289</v>
+        <v>162742.68213834387</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -4702,7 +4738,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>83369.860533035957</v>
+        <v>193110.17067118667</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -4713,7 +4749,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>226669.19480015148</v>
+        <v>123069.07815825405</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -4724,7 +4760,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>56510.425773041847</v>
+        <v>155037.94208492659</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -4735,7 +4771,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>151358.23568905707</v>
+        <v>101669.22491086849</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -4746,7 +4782,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>137284.13266573334</v>
+        <v>180627.88658068964</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -4757,7 +4793,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>126567.92632769693</v>
+        <v>137611.98115587045</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -4768,7 +4804,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>228960.5389343671</v>
+        <v>201228.87293929289</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -4779,7 +4815,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>82498.072972736976</v>
+        <v>83369.860533035957</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -4790,7 +4826,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>122495.45920234967</v>
+        <v>226669.19480015148</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -4801,7 +4837,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>178495.99803134744</v>
+        <v>56510.425773041847</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -4812,7 +4848,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>218167.14027386624</v>
+        <v>151358.23568905707</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -4823,7 +4859,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>117486.85089585757</v>
+        <v>137284.13266573334</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -4834,7 +4870,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>139588.27677594966</v>
+        <v>126567.92632769693</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -4845,7 +4881,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>125409.54168593518</v>
+        <v>228960.5389343671</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -4856,7 +4892,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>143625.77890409698</v>
+        <v>82498.072972736976</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -4867,7 +4903,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>263396.08101549553</v>
+        <v>122495.45920234967</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -4878,7 +4914,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>171107.63126471869</v>
+        <v>178495.99803134744</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -4889,7 +4925,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>146850.69160877375</v>
+        <v>173128.22034390995</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -4900,7 +4936,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>158405.8812057827</v>
+        <v>218167.14027386624</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -4911,7 +4947,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>157193.17343214669</v>
+        <v>117486.85089585757</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -4922,7 +4958,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>171107.63126471869</v>
+        <v>139588.27677594966</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -4933,7 +4969,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>175153.66639812605</v>
+        <v>125409.54168593518</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -4944,7 +4980,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>199140.60675829346</v>
+        <v>143625.77890409698</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -4955,7 +4991,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>217334.35049607727</v>
+        <v>263396.08101549553</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -4966,7 +5002,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>216219.36666660593</v>
+        <v>171107.63126471869</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -4977,7 +5013,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>206254.29004022977</v>
+        <v>146850.69160877375</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -4988,7 +5024,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>213800.17870614497</v>
+        <v>158405.8812057827</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -4999,7 +5035,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>244465.56120779598</v>
+        <v>157193.17343214669</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -5010,7 +5046,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>174442.92402725032</v>
+        <v>171107.63126471869</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -5021,7 +5057,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>193218.19556646698</v>
+        <v>175153.66639812605</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -5032,7 +5068,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>35027.390716625261</v>
+        <v>199140.60675829346</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -5043,7 +5079,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>174395.57673215622</v>
+        <v>217334.35049607727</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -5054,7 +5090,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>167263.49758557681</v>
+        <v>216219.36666660593</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -5065,7 +5101,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>55793.608659920443</v>
+        <v>206254.29004022977</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -5076,7 +5112,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>40906.774142714101</v>
+        <v>213800.17870614497</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -5087,7 +5123,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>196375.4889690335</v>
+        <v>244465.56120779598</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -5098,7 +5134,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>176161.55535807236</v>
+        <v>80837.472737106538</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -5109,7 +5145,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>141159.52521500736</v>
+        <v>174442.92402725032</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -5120,7 +5156,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>186800.63145868611</v>
+        <v>193218.19556646698</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -5131,7 +5167,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>185725.16192964086</v>
+        <v>35027.390716625261</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -5142,7 +5178,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>129082.45553911074</v>
+        <v>174395.57673215622</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -5153,7 +5189,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>137934.14649712399</v>
+        <v>167263.49758557681</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -5164,7 +5200,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>104230.78243777137</v>
+        <v>55793.608659920443</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -5175,7 +5211,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>207019.10443432574</v>
+        <v>40906.774142714101</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -5186,7 +5222,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>103009.81877692397</v>
+        <v>196375.4889690335</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -5197,7 +5233,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>144789.85993871969</v>
+        <v>176161.55535807236</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -5208,7 +5244,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>147553.79213751762</v>
+        <v>141159.52521500736</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -5219,7 +5255,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>150012.10060755161</v>
+        <v>186800.63145868611</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -5230,7 +5266,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>70478.893612933985</v>
+        <v>185725.16192964086</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -5241,7 +5277,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>147822.87691773815</v>
+        <v>129082.45553911074</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -5252,7 +5288,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>164430.43722333829</v>
+        <v>137934.14649712399</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -5263,7 +5299,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>158582.88525359641</v>
+        <v>104230.78243777137</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -5274,7 +5310,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>214529.65130904637</v>
+        <v>207019.10443432574</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -5285,7 +5321,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>193518.74082246894</v>
+        <v>103009.81877692397</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -5296,7 +5332,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>180346.34953191227</v>
+        <v>144789.85993871969</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -5307,7 +5343,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>148266.42117378337</v>
+        <v>147553.79213751762</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -5318,7 +5354,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>153640.82987293316</v>
+        <v>150012.10060755161</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -5329,7 +5365,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>141854.03280344114</v>
+        <v>70478.893612933985</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -5340,7 +5376,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>149865.94188400081</v>
+        <v>147822.87691773815</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -5351,7 +5387,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>150026.42716535137</v>
+        <v>164430.43722333829</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -5362,7 +5398,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>138488.91828116955</v>
+        <v>158582.88525359641</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -5373,7 +5409,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>174534.9143069257</v>
+        <v>214529.65130904637</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -5384,7 +5420,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>225984.45969176473</v>
+        <v>193518.74082246894</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -5395,7 +5431,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>171209.61511014283</v>
+        <v>180346.34953191227</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -5406,7 +5442,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>168627.95138567057</v>
+        <v>148266.42117378337</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -5417,7 +5453,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>132172.20311725896</v>
+        <v>153640.82987293316</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -5428,7 +5464,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>166624.0205482904</v>
+        <v>141854.03280344114</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -5439,7 +5475,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>137630.29763660731</v>
+        <v>149865.94188400081</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -5450,7 +5486,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>160754.64434404369</v>
+        <v>150026.42716535137</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -5461,7 +5497,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>253321.66920197156</v>
+        <v>138488.91828116955</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -5472,7 +5508,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>167605.41488140955</v>
+        <v>174534.9143069257</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -5483,7 +5519,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>239713.42103330151</v>
+        <v>225984.45969176473</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -5494,7 +5530,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>246615.38677556848</v>
+        <v>171209.61511014283</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -5505,7 +5541,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>147331.47318472801</v>
+        <v>168627.95138567057</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -5516,7 +5552,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>211051.95916201809</v>
+        <v>132172.20311725896</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -5527,7 +5563,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>249194.91441709112</v>
+        <v>166624.0205482904</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -5538,7 +5574,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>254700.17462678626</v>
+        <v>137630.29763660731</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -5549,7 +5585,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>162527.06350154479</v>
+        <v>160754.64434404369</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -5560,7 +5596,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>56071.391515825249</v>
+        <v>253321.66920197156</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -5571,7 +5607,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>265594.8579347576</v>
+        <v>167605.41488140955</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -5582,7 +5618,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>93519.237784156197</v>
+        <v>239713.42103330151</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -5593,7 +5629,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>114305.06415653507</v>
+        <v>246615.38677556848</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -5604,7 +5640,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>146030.3352219252</v>
+        <v>147331.47318472801</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -5615,7 +5651,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>210065.03172282418</v>
+        <v>211051.95916201809</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -5626,7 +5662,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>211726.81493463041</v>
+        <v>249194.91441709112</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -5637,7 +5673,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>192230.58352031338</v>
+        <v>254700.17462678626</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -5648,7 +5684,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>190879.95651779219</v>
+        <v>162527.06350154479</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -5659,7 +5695,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>192230.58352031338</v>
+        <v>56071.391515825249</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -5670,7 +5706,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>184330.89353033714</v>
+        <v>265594.8579347576</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -5681,7 +5717,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>218929.65588347733</v>
+        <v>148734.3792369258</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -5692,7 +5728,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>156669.4607380121</v>
+        <v>93519.237784156197</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -5703,7 +5739,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>184483.28202739559</v>
+        <v>114305.06415653507</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -5714,7 +5750,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>191004.77607970519</v>
+        <v>146030.3352219252</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -5725,7 +5761,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>156669.4607380121</v>
+        <v>210065.03172282418</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -5736,7 +5772,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>176646.26018642599</v>
+        <v>211726.81493463041</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -5747,7 +5783,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>233131.74237659317</v>
+        <v>192230.58352031338</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -5758,7 +5794,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>76247.54316583238</v>
+        <v>190879.95651779219</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -5769,7 +5805,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>194617.10290398344</v>
+        <v>192230.58352031338</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -5780,7 +5816,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>194617.10290398344</v>
+        <v>184330.89353033714</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -5791,7 +5827,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>119756.71577017927</v>
+        <v>218929.65588347733</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -5802,7 +5838,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>185033.08236171637</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -5813,7 +5849,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>153350.92097992668</v>
+        <v>184483.28202739559</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -5824,7 +5860,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>234791.34590793872</v>
+        <v>191004.77607970519</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -5835,7 +5871,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>194469.15718595299</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -5846,7 +5882,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>228612.90152308185</v>
+        <v>176646.26018642599</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -5857,7 +5893,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>204218.66971796501</v>
+        <v>233131.74237659317</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -5868,7 +5904,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>153350.92097992668</v>
+        <v>76247.54316583238</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -5879,7 +5915,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>202560.2566780145</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -5890,7 +5926,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>187310.83586857235</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -5901,7 +5937,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>180888.98842913637</v>
+        <v>119756.71577017927</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -5912,7 +5948,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>198917.18547389828</v>
+        <v>185033.08236171637</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -5923,7 +5959,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>222197.40751272874</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -5934,7 +5970,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>119129.12642797492</v>
+        <v>234791.34590793872</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -5945,7 +5981,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>153350.92097992668</v>
+        <v>194469.15718595299</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -5956,7 +5992,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>153350.92097992668</v>
+        <v>228612.90152308185</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -5967,7 +6003,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>149600.42321488447</v>
+        <v>204218.66971796501</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -5978,7 +6014,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>149600.42321488447</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -5989,7 +6025,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>198389.92381993463</v>
+        <v>202560.2566780145</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -6000,7 +6036,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>221449.81956797894</v>
+        <v>187310.83586857235</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -6011,7 +6047,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>226864.62546483401</v>
+        <v>180888.98842913637</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -6022,7 +6058,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>105485.62600642636</v>
+        <v>198917.18547389828</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -6033,7 +6069,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>104757.94458008943</v>
+        <v>222197.40751272874</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -6044,7 +6080,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>251534.53543029173</v>
+        <v>119129.12642797492</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -6055,7 +6091,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>170615.94092867716</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -6066,7 +6102,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>115885.86603180323</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -6077,7 +6113,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>153350.92097992668</v>
+        <v>149600.42321488447</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -6088,7 +6124,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>153350.92097992668</v>
+        <v>149600.42321488447</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -6099,7 +6135,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>153350.92097992668</v>
+        <v>198389.92381993463</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -6110,7 +6146,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>176646.26018642599</v>
+        <v>221449.81956797894</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -6121,7 +6157,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>95128.192630201738</v>
+        <v>226864.62546483401</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -6132,7 +6168,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>85453.924112670124</v>
+        <v>105485.62600642636</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -6143,7 +6179,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>165633.46230691631</v>
+        <v>104757.94458008943</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -6154,7 +6190,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>156669.4607380121</v>
+        <v>251534.53543029173</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -6165,7 +6201,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>267911.94501880504</v>
+        <v>170615.94092867716</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -6176,7 +6212,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>187310.83586857235</v>
+        <v>115885.86603180323</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -6187,7 +6223,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>165017.38030243121</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -6198,7 +6234,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>187310.83586857235</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -6209,7 +6245,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>187310.83586857235</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -6220,7 +6256,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>156669.4607380121</v>
+        <v>176646.26018642599</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -6231,7 +6267,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>207328.11096291748</v>
+        <v>95128.192630201738</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -6242,7 +6278,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>204218.66971796501</v>
+        <v>85453.924112670124</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -6253,7 +6289,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>87461.18692968355</v>
+        <v>165633.46230691631</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -6264,7 +6300,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>157236.39019691691</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -6275,7 +6311,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>176646.26018642599</v>
+        <v>267911.94501880504</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -6286,7 +6322,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>202054.56404788385</v>
+        <v>187310.83586857235</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -6297,7 +6333,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>113168.2358607154</v>
+        <v>165017.38030243121</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -6308,7 +6344,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>153350.92097992668</v>
+        <v>187310.83586857235</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -6319,7 +6355,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>153350.92097992668</v>
+        <v>187310.83586857235</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -6330,7 +6366,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>194617.10290398344</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -6341,7 +6377,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>149600.42321488447</v>
+        <v>207328.11096291748</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -6352,7 +6388,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>153350.92097992668</v>
+        <v>204218.66971796501</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -6363,7 +6399,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>156669.4607380121</v>
+        <v>87461.18692968355</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -6374,7 +6410,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>156669.4607380121</v>
+        <v>157236.39019691691</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -6385,7 +6421,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>155025.13736452055</v>
+        <v>176646.26018642599</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -6396,7 +6432,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>106610.03606319574</v>
+        <v>202054.56404788385</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -6407,7 +6443,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>235667.62680279854</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -6418,7 +6454,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>94218.846671380161</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -6429,7 +6465,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>164523.53044467137</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -6440,7 +6476,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>173618.22167312854</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -6451,7 +6487,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>153350.92097992668</v>
+        <v>149600.42321488447</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -6462,7 +6498,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>99248.858600816267</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -6473,7 +6509,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>194617.10290398344</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -6484,7 +6520,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>87916.983453714987</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -6495,7 +6531,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>194617.10290398344</v>
+        <v>155025.13736452055</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -6506,7 +6542,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>113168.2358607154</v>
+        <v>81668.709568863676</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -6517,7 +6553,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>156214.51933285675</v>
+        <v>106610.03606319574</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -6528,7 +6564,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>198917.18547389828</v>
+        <v>235667.62680279854</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -6539,7 +6575,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>251534.53543029173</v>
+        <v>94218.846671380161</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -6550,7 +6586,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>194617.10290398344</v>
+        <v>70828.652511220527</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -6561,7 +6597,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>176646.26018642599</v>
+        <v>164523.53044467137</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -6572,7 +6608,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>194617.10290398344</v>
+        <v>173618.22167312854</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -6583,7 +6619,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>149600.42321488447</v>
+        <v>153350.92097992668</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -6594,7 +6630,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>131160.25577959785</v>
+        <v>99248.858600816267</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -6605,7 +6641,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>160500.47003921086</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -6616,7 +6652,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>244859.8301367386</v>
+        <v>87916.983453714987</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -6627,7 +6663,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>173437.7511362854</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -6638,7 +6674,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>146229.75768529618</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -6649,7 +6685,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>150242.61299235813</v>
+        <v>156214.51933285675</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -6660,7 +6696,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>210627.47561252621</v>
+        <v>198917.18547389828</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -6671,7 +6707,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>146229.75768529618</v>
+        <v>251534.53543029173</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -6682,7 +6718,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>145542.84731651307</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -6693,7 +6729,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>146498.42839597134</v>
+        <v>176646.26018642599</v>
       </c>
       <c r="C459">
         <v>1</v>
@@ -6704,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>128788.20450634682</v>
+        <v>194617.10290398344</v>
       </c>
       <c r="C460">
         <v>1</v>
@@ -6715,7 +6751,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>163484.60414464097</v>
+        <v>149600.42321488447</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -6726,7 +6762,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>150182.63168283022</v>
+        <v>131160.25577959785</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -6737,7 +6773,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>161611.03789285509</v>
+        <v>160500.47003921086</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -6748,7 +6784,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>200584.97539832708</v>
+        <v>244859.8301367386</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -6759,7 +6795,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>201271.63180762209</v>
+        <v>173437.7511362854</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -6770,7 +6806,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>228125.78563218768</v>
+        <v>146229.75768529618</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -6781,7 +6817,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>213647.69401151894</v>
+        <v>150242.61299235813</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -6792,7 +6828,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>133477.84883408522</v>
+        <v>210627.47561252621</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -6803,7 +6839,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>231377.68682897839</v>
+        <v>146229.75768529618</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -6814,7 +6850,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>202749.22938669249</v>
+        <v>145542.84731651307</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -6825,7 +6861,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>132119.51426370442</v>
+        <v>146498.42839597134</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -6836,7 +6872,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>153177.35847845947</v>
+        <v>128788.20450634682</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -6847,7 +6883,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>132119.51426370442</v>
+        <v>163484.60414464097</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -6858,7 +6894,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>132135.86111613427</v>
+        <v>150182.63168283022</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -6869,7 +6905,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>155436.28780641497</v>
+        <v>161611.03789285509</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -6880,7 +6916,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>153343.00640551225</v>
+        <v>200584.97539832708</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -6891,7 +6927,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>196131.8531536152</v>
+        <v>201271.63180762209</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -6902,7 +6938,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>131583.79097934856</v>
+        <v>228125.78563218768</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -6913,7 +6949,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>166743.38000865729</v>
+        <v>213647.69401151894</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -6924,7 +6960,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>163149.19885785136</v>
+        <v>133477.84883408522</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -6935,7 +6971,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>144878.3631743564</v>
+        <v>231377.68682897839</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -6946,7 +6982,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>232771.09706798923</v>
+        <v>202749.22938669249</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -6957,7 +6993,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>167312.0258462413</v>
+        <v>132119.51426370442</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -6968,7 +7004,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>201801.47182293647</v>
+        <v>153177.35847845947</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -6979,7 +7015,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>156731.00426675405</v>
+        <v>132119.51426370442</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -6990,7 +7026,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>214604.49102606458</v>
+        <v>132135.86111613427</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -7001,7 +7037,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>196440.78197396416</v>
+        <v>155436.28780641497</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -7012,7 +7048,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>175277.18306082295</v>
+        <v>153343.00640551225</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -7023,7 +7059,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>210121.86131208244</v>
+        <v>196131.8531536152</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -7034,7 +7070,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>141308.53545223345</v>
+        <v>131583.79097934856</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -7045,7 +7081,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>166103.02406516293</v>
+        <v>166743.38000865729</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -7056,7 +7092,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>169403.3314025687</v>
+        <v>163149.19885785136</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -7067,7 +7103,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>170253.07562054344</v>
+        <v>144878.3631743564</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -7078,7 +7114,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>151469.27375132401</v>
+        <v>232771.09706798923</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -7089,7 +7125,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>124701.77397569323</v>
+        <v>167312.0258462413</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -7100,7 +7136,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>184089.35836469047</v>
+        <v>201801.47182293647</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -7111,7 +7147,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>124701.77397569323</v>
+        <v>156731.00426675405</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -7122,7 +7158,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>170973.63911233016</v>
+        <v>214604.49102606458</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -7133,7 +7169,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>153088.98560545756</v>
+        <v>196440.78197396416</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -7144,7 +7180,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>226642.09785247577</v>
+        <v>175277.18306082295</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -7155,7 +7191,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>148261.95348778431</v>
+        <v>210121.86131208244</v>
       </c>
       <c r="C501">
         <v>1</v>
@@ -7166,7 +7202,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>109537.49863380885</v>
+        <v>141308.53545223345</v>
       </c>
       <c r="C502">
         <v>1</v>
@@ -7177,7 +7213,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>149454.65507611321</v>
+        <v>166103.02406516293</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -7188,7 +7224,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>181893.77237919508</v>
+        <v>169403.3314025687</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -7199,7 +7235,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>220524.59507695551</v>
+        <v>170253.07562054344</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -7210,7 +7246,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>159873.53667192563</v>
+        <v>151469.27375132401</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -7221,7 +7257,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>139591.15565262942</v>
+        <v>124701.77397569323</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -7232,7 +7268,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>158165.78717522789</v>
+        <v>184089.35836469047</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -7243,7 +7279,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>146500.40996607646</v>
+        <v>124701.77397569323</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -7254,7 +7290,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>161471.23079627281</v>
+        <v>170973.63911233016</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -7265,7 +7301,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>157000.16854251677</v>
+        <v>153088.98560545756</v>
       </c>
       <c r="C511">
         <v>1</v>
@@ -7276,7 +7312,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>206371.7875659065</v>
+        <v>226642.09785247577</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -7287,7 +7323,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>163981.52903786278</v>
+        <v>148261.95348778431</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -7298,7 +7334,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>166095.48659207861</v>
+        <v>109537.49863380885</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -7309,7 +7345,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>163708.18989533841</v>
+        <v>149454.65507611321</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -7320,7 +7356,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>183634.87580602377</v>
+        <v>181893.77237919508</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -7331,7 +7367,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>175427.23909660731</v>
+        <v>220524.59507695551</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -7342,7 +7378,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>176479.36022123866</v>
+        <v>159873.53667192563</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -7353,7 +7389,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>129423.03747817855</v>
+        <v>139591.15565262942</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -7364,7 +7400,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>147315.15380459718</v>
+        <v>158165.78717522789</v>
       </c>
       <c r="C520">
         <v>1</v>
@@ -7375,7 +7411,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>156286.24732753809</v>
+        <v>146500.40996607646</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -7386,7 +7422,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>143219.11323532771</v>
+        <v>161471.23079627281</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -7397,7 +7433,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>201522.90502422905</v>
+        <v>157000.16854251677</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -7408,7 +7444,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>202810.33113827329</v>
+        <v>206371.7875659065</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -7419,9 +7455,141 @@
         <v>524</v>
       </c>
       <c r="B525">
+        <v>163981.52903786278</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>166095.48659207861</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B527">
+        <v>163708.18989533841</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B528">
+        <v>183634.87580602377</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B529">
+        <v>175427.23909660731</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B530">
+        <v>176479.36022123866</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531">
+        <v>129423.03747817855</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B532">
+        <v>147315.15380459718</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B533">
+        <v>156286.24732753809</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B534">
+        <v>143219.11323532771</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B535">
+        <v>201522.90502422905</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B536">
+        <v>202810.33113827329</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B537">
         <v>92945.687362785902</v>
       </c>
-      <c r="C525">
+      <c r="C537">
         <v>1</v>
       </c>
     </row>
